--- a/Översikt MARIESTAD.xlsx
+++ b/Översikt MARIESTAD.xlsx
@@ -575,7 +575,7 @@
         <v>45691.58489583333</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44473</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         <v>45708.62547453704</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         <v>45664.6258912037</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -949,7 +949,7 @@
         <v>44648</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1036,7 +1036,7 @@
         <v>44484</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>45911.63658564815</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
         <v>45203</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         <v>44524</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>44628</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1480,7 +1480,7 @@
         <v>45222.72725694445</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1566,7 +1566,7 @@
         <v>45015.46353009259</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         <v>45201.33994212963</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         <v>44461</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         <v>44610.35016203704</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1924,7 +1924,7 @@
         <v>45821.63221064815</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2014,7 +2014,7 @@
         <v>45821.63375</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2104,7 +2104,7 @@
         <v>45911.6475462963</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2189,7 +2189,7 @@
         <v>45035.43792824074</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2274,7 +2274,7 @@
         <v>45947.64873842592</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2359,7 +2359,7 @@
         <v>44974</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2448,7 +2448,7 @@
         <v>44880.67344907407</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2533,7 +2533,7 @@
         <v>45330</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
         <v>45761.65479166667</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
         <v>45210</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2788,7 +2788,7 @@
         <v>45716.26487268518</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2878,7 +2878,7 @@
         <v>44619.80266203704</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2935,7 +2935,7 @@
         <v>44383</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2992,7 +2992,7 @@
         <v>44574</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         <v>44461</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         <v>44852</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3163,7 +3163,7 @@
         <v>44840.30342592593</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         <v>44473.49318287037</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
         <v>44746.47386574074</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3334,7 +3334,7 @@
         <v>44484</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3391,7 +3391,7 @@
         <v>44279</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3453,7 +3453,7 @@
         <v>44446</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
         <v>44356</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3567,7 +3567,7 @@
         <v>44460.49046296296</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>44461</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>44523</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
         <v>44539.55670138889</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>44614</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3857,7 +3857,7 @@
         <v>44766.64856481482</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3914,7 +3914,7 @@
         <v>44337</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
         <v>44880</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4028,7 +4028,7 @@
         <v>44361</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4085,7 +4085,7 @@
         <v>44438.53459490741</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
         <v>44546</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4199,7 +4199,7 @@
         <v>44447.32269675926</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4256,7 +4256,7 @@
         <v>44260.52445601852</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4313,7 +4313,7 @@
         <v>44404</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4370,7 +4370,7 @@
         <v>44453.69256944444</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4427,7 +4427,7 @@
         <v>44496.26841435185</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4489,7 +4489,7 @@
         <v>44758</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         <v>44693</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4603,7 +4603,7 @@
         <v>44340</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4660,7 +4660,7 @@
         <v>44433.41525462963</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4717,7 +4717,7 @@
         <v>44649</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4774,7 +4774,7 @@
         <v>44571</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4831,7 +4831,7 @@
         <v>44445</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4888,7 +4888,7 @@
         <v>44371</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4945,7 +4945,7 @@
         <v>44354.61337962963</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5002,7 +5002,7 @@
         <v>44880</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         <v>44581.30111111111</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5121,7 +5121,7 @@
         <v>44256</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5178,7 +5178,7 @@
         <v>44526.32285879629</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5240,7 +5240,7 @@
         <v>44446</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5297,7 +5297,7 @@
         <v>44264.26887731482</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5359,7 +5359,7 @@
         <v>44440</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5416,7 +5416,7 @@
         <v>44344</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5473,7 +5473,7 @@
         <v>44523</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5530,7 +5530,7 @@
         <v>44455.72633101852</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5587,7 +5587,7 @@
         <v>44592.403125</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5644,7 +5644,7 @@
         <v>44530</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5701,7 +5701,7 @@
         <v>45674.33615740741</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5758,7 +5758,7 @@
         <v>45435</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5820,7 +5820,7 @@
         <v>44630.53233796296</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
         <v>44363.29069444445</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5934,7 +5934,7 @@
         <v>45628.53997685185</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5991,7 +5991,7 @@
         <v>45590.41381944445</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6053,7 +6053,7 @@
         <v>45702.38752314815</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6115,7 +6115,7 @@
         <v>44843.6315625</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6172,7 +6172,7 @@
         <v>45677.82644675926</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6229,7 +6229,7 @@
         <v>44830</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6286,7 +6286,7 @@
         <v>44574.24587962963</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6343,7 +6343,7 @@
         <v>45762.31956018518</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6405,7 +6405,7 @@
         <v>45762.32237268519</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6467,7 +6467,7 @@
         <v>45397</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6524,7 +6524,7 @@
         <v>45705.47967592593</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6581,7 +6581,7 @@
         <v>44629</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         <v>45590.4659837963</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6700,7 +6700,7 @@
         <v>44830</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6757,7 +6757,7 @@
         <v>45324</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6814,7 +6814,7 @@
         <v>45470.49233796296</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6876,7 +6876,7 @@
         <v>45469.35059027778</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6933,7 +6933,7 @@
         <v>44847</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6990,7 +6990,7 @@
         <v>45097.42556712963</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7047,7 +7047,7 @@
         <v>44521</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7104,7 +7104,7 @@
         <v>45600.69061342593</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7161,7 +7161,7 @@
         <v>45210.57178240741</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7218,7 +7218,7 @@
         <v>45210.59508101852</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7275,7 +7275,7 @@
         <v>45705.4209837963</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>44746.41878472222</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7389,7 +7389,7 @@
         <v>44942.71665509259</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7446,7 +7446,7 @@
         <v>45798.39030092592</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7508,7 +7508,7 @@
         <v>45798.40402777777</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         <v>44536.40289351852</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         <v>45691.32157407407</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7689,7 +7689,7 @@
         <v>45691.3403587963</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7751,7 +7751,7 @@
         <v>44693.65290509259</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7808,7 +7808,7 @@
         <v>45170</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7865,7 +7865,7 @@
         <v>44971</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7922,7 +7922,7 @@
         <v>45798.39853009259</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7984,7 +7984,7 @@
         <v>44993</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8046,7 +8046,7 @@
         <v>45097.40554398148</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8103,7 +8103,7 @@
         <v>45240</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8160,7 +8160,7 @@
         <v>44797.32917824074</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8217,7 +8217,7 @@
         <v>45887.65668981482</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8279,7 +8279,7 @@
         <v>45716.55226851852</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8341,7 +8341,7 @@
         <v>45163.45347222222</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8403,7 +8403,7 @@
         <v>45343.59774305556</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8460,7 +8460,7 @@
         <v>45804.4008912037</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8522,7 +8522,7 @@
         <v>45268</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8579,7 +8579,7 @@
         <v>45804.40251157407</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8641,7 +8641,7 @@
         <v>45804.59694444444</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8698,7 +8698,7 @@
         <v>45804.40402777777</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8760,7 +8760,7 @@
         <v>45804.55891203704</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>45804.59502314815</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>45373.68430555556</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>45804.56056712963</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>45754.48366898148</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9055,7 +9055,7 @@
         <v>45889</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9112,7 +9112,7 @@
         <v>44351</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9174,7 +9174,7 @@
         <v>45245</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9231,7 +9231,7 @@
         <v>45265</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>45810.63402777778</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         <v>45817.60978009259</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>45560.31390046296</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9469,7 +9469,7 @@
         <v>44426</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9526,7 +9526,7 @@
         <v>44746.41486111111</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9583,7 +9583,7 @@
         <v>44746.42554398148</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9640,7 +9640,7 @@
         <v>44536</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9702,7 +9702,7 @@
         <v>45393.62962962963</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9759,7 +9759,7 @@
         <v>45897.66349537037</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9816,7 +9816,7 @@
         <v>45818.62532407408</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9873,7 +9873,7 @@
         <v>45819.4</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9930,7 +9930,7 @@
         <v>45819.40282407407</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9987,7 +9987,7 @@
         <v>44901.49652777778</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10049,7 +10049,7 @@
         <v>45819.39317129629</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10106,7 +10106,7 @@
         <v>45821.30320601852</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10163,7 +10163,7 @@
         <v>45820.63811342593</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10220,7 +10220,7 @@
         <v>45820.64241898148</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10277,7 +10277,7 @@
         <v>45673</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10334,7 +10334,7 @@
         <v>45903.4885300926</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10391,7 +10391,7 @@
         <v>45825</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10448,7 +10448,7 @@
         <v>45824.66903935185</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10505,7 +10505,7 @@
         <v>45824.3672337963</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10562,7 +10562,7 @@
         <v>45908.5827662037</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10619,7 +10619,7 @@
         <v>45824.82013888889</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10676,7 +10676,7 @@
         <v>45909.62569444445</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10733,7 +10733,7 @@
         <v>45909</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10790,7 +10790,7 @@
         <v>44883.53908564815</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10852,7 +10852,7 @@
         <v>45909.62886574074</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10909,7 +10909,7 @@
         <v>45909.62775462963</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10966,7 +10966,7 @@
         <v>45825.49831018518</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11028,7 +11028,7 @@
         <v>45909.62460648148</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11085,7 +11085,7 @@
         <v>44414.531875</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11147,7 +11147,7 @@
         <v>45825.49658564815</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
         <v>45825.50122685185</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11271,7 +11271,7 @@
         <v>45911.63373842592</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>45911.63979166667</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         <v>45827.60287037037</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11452,7 +11452,7 @@
         <v>45911.63810185185</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11514,7 +11514,7 @@
         <v>45911.58439814814</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11571,7 +11571,7 @@
         <v>45744.57194444445</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11628,7 +11628,7 @@
         <v>45827.59276620371</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11690,7 +11690,7 @@
         <v>45682</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11747,7 +11747,7 @@
         <v>45199</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11804,7 +11804,7 @@
         <v>44958</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11861,7 +11861,7 @@
         <v>45916.51296296297</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11918,7 +11918,7 @@
         <v>45548.48182870371</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11975,7 +11975,7 @@
         <v>44964.69994212963</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12032,7 +12032,7 @@
         <v>45918.70782407407</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12089,7 +12089,7 @@
         <v>45922.35247685185</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12146,7 +12146,7 @@
         <v>45201</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12203,7 +12203,7 @@
         <v>45922.54543981481</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12265,7 +12265,7 @@
         <v>45167</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12322,7 +12322,7 @@
         <v>44774</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12379,7 +12379,7 @@
         <v>44937</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12436,7 +12436,7 @@
         <v>45764.52909722222</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12493,7 +12493,7 @@
         <v>44965.64119212963</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12550,7 +12550,7 @@
         <v>44994.8055787037</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12607,7 +12607,7 @@
         <v>44386</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12664,7 +12664,7 @@
         <v>44645</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12726,7 +12726,7 @@
         <v>44836.73601851852</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12783,7 +12783,7 @@
         <v>45769.51013888889</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12840,7 +12840,7 @@
         <v>45769.51427083334</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12897,7 +12897,7 @@
         <v>45841.50793981482</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12959,7 +12959,7 @@
         <v>45722.57290509259</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13016,7 +13016,7 @@
         <v>45222.73658564815</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13073,7 +13073,7 @@
         <v>44843</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13130,7 +13130,7 @@
         <v>44865</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13187,7 +13187,7 @@
         <v>45716.50848379629</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13249,7 +13249,7 @@
         <v>45938.3840625</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13306,7 +13306,7 @@
         <v>45840</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13363,7 +13363,7 @@
         <v>45841.42353009259</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13425,7 +13425,7 @@
         <v>45705</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13482,7 +13482,7 @@
         <v>45937.61165509259</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13539,7 +13539,7 @@
         <v>44638</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13596,7 +13596,7 @@
         <v>45443.50011574074</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13653,7 +13653,7 @@
         <v>44936</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13710,7 +13710,7 @@
         <v>44812.31384259259</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13767,7 +13767,7 @@
         <v>45832.85302083333</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13824,7 +13824,7 @@
         <v>44356</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13881,7 +13881,7 @@
         <v>45201.35621527778</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13938,7 +13938,7 @@
         <v>45203</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13995,7 +13995,7 @@
         <v>45720</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14052,7 +14052,7 @@
         <v>45947.65197916667</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14109,7 +14109,7 @@
         <v>44986</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14166,7 +14166,7 @@
         <v>44620.36565972222</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14223,7 +14223,7 @@
         <v>45762.32105324074</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14285,7 +14285,7 @@
         <v>45211</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14342,7 +14342,7 @@
         <v>45211</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14399,7 +14399,7 @@
         <v>45266.87113425926</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14456,7 +14456,7 @@
         <v>44972.48915509259</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14513,7 +14513,7 @@
         <v>45873.53010416667</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14570,7 +14570,7 @@
         <v>45958.43296296296</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14627,7 +14627,7 @@
         <v>45958.44686342592</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14684,7 +14684,7 @@
         <v>44974</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14741,7 +14741,7 @@
         <v>45875</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14803,7 +14803,7 @@
         <v>45070</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14865,7 +14865,7 @@
         <v>45131</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14922,7 +14922,7 @@
         <v>45875.6099537037</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14979,7 +14979,7 @@
         <v>45875.4712037037</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15036,7 +15036,7 @@
         <v>45664.63055555556</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15093,7 +15093,7 @@
         <v>45958.44865740741</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15150,7 +15150,7 @@
         <v>44994.81083333334</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15207,7 +15207,7 @@
         <v>45033</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15264,7 +15264,7 @@
         <v>45558.33138888889</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15321,7 +15321,7 @@
         <v>45210.57627314814</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15378,7 +15378,7 @@
         <v>45210.58008101852</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15435,7 +15435,7 @@
         <v>44943</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15492,7 +15492,7 @@
         <v>45960.64665509259</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15549,7 +15549,7 @@
         <v>45181</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15606,7 +15606,7 @@
         <v>45965.53032407408</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15663,7 +15663,7 @@
         <v>45343</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15720,7 +15720,7 @@
         <v>44943.665625</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15777,7 +15777,7 @@
         <v>45966.67394675926</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15834,7 +15834,7 @@
         <v>45135</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15891,7 +15891,7 @@
         <v>45972.57346064815</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15953,7 +15953,7 @@
         <v>44935.3791550926</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16010,7 +16010,7 @@
         <v>45973.47078703704</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16067,7 +16067,7 @@
         <v>45384</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16124,7 +16124,7 @@
         <v>45887.62195601852</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16186,7 +16186,7 @@
         <v>45628.67807870371</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16243,7 +16243,7 @@
         <v>45887.65802083333</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16305,7 +16305,7 @@
         <v>45887.65528935185</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16367,7 +16367,7 @@
         <v>45748.34873842593</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16424,7 +16424,7 @@
         <v>45006</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16481,7 +16481,7 @@
         <v>45225.63690972222</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16538,7 +16538,7 @@
         <v>45188.55583333333</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16600,7 +16600,7 @@
         <v>45329.57056712963</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16657,7 +16657,7 @@
         <v>45981.81599537037</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16714,7 +16714,7 @@
         <v>44739</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16776,7 +16776,7 @@
         <v>45628.39192129629</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16838,7 +16838,7 @@
         <v>45761.59930555556</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16895,7 +16895,7 @@
         <v>45015.67859953704</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16952,7 +16952,7 @@
         <v>45324</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17014,7 +17014,7 @@
         <v>46029.47251157407</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17076,7 +17076,7 @@
         <v>44756.36030092592</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17133,7 +17133,7 @@
         <v>44936</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17190,7 +17190,7 @@
         <v>46029.47435185185</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17252,7 +17252,7 @@
         <v>45989.31944444445</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17309,7 +17309,7 @@
         <v>45639.71925925926</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17366,7 +17366,7 @@
         <v>45239.49313657408</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17428,7 +17428,7 @@
         <v>45535.51828703703</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17485,7 +17485,7 @@
         <v>45243</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17542,7 +17542,7 @@
         <v>45412.63918981481</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17599,7 +17599,7 @@
         <v>45412.85439814815</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17656,7 +17656,7 @@
         <v>46035.39893518519</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17713,7 +17713,7 @@
         <v>45544.47037037037</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17770,7 +17770,7 @@
         <v>45271.44229166667</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17827,7 +17827,7 @@
         <v>45268</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17884,7 +17884,7 @@
         <v>45530.40872685185</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17941,7 +17941,7 @@
         <v>46037.34707175926</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17998,7 +17998,7 @@
         <v>44572</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18060,7 +18060,7 @@
         <v>44903.59100694444</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18117,7 +18117,7 @@
         <v>45705.47484953704</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18174,7 +18174,7 @@
         <v>45705.47769675926</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18231,7 +18231,7 @@
         <v>45982</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18288,7 +18288,7 @@
         <v>45722.55954861111</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18345,7 +18345,7 @@
         <v>45727.40679398148</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18402,7 +18402,7 @@
         <v>45271.62438657408</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18459,7 +18459,7 @@
         <v>44523.37383101852</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18516,7 +18516,7 @@
         <v>44986</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18573,7 +18573,7 @@
         <v>45217</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18630,7 +18630,7 @@
         <v>45217.39053240741</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18687,7 +18687,7 @@
         <v>44930.62032407407</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18744,7 +18744,7 @@
         <v>46042.52333333333</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18801,7 +18801,7 @@
         <v>45330.53326388889</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18858,7 +18858,7 @@
         <v>46000.39114583333</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18915,7 +18915,7 @@
         <v>46003.38299768518</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18972,7 +18972,7 @@
         <v>46003.38445601852</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19029,7 +19029,7 @@
         <v>46003.3855787037</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19086,7 +19086,7 @@
         <v>46003.3871412037</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19143,7 +19143,7 @@
         <v>45015.53054398148</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19200,7 +19200,7 @@
         <v>44876.42122685185</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19262,7 +19262,7 @@
         <v>44900</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19319,7 +19319,7 @@
         <v>46007.59984953704</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19376,7 +19376,7 @@
         <v>44371</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19438,7 +19438,7 @@
         <v>44812.25462962963</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19495,7 +19495,7 @@
         <v>44957</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19552,7 +19552,7 @@
         <v>46007.45995370371</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19609,7 +19609,7 @@
         <v>46009</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19671,7 +19671,7 @@
         <v>45371.44770833333</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19728,7 +19728,7 @@
         <v>46050.52313657408</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19785,7 +19785,7 @@
         <v>46050.52133101852</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19842,7 +19842,7 @@
         <v>44622.43478009259</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19899,7 +19899,7 @@
         <v>46008.36337962963</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19961,7 +19961,7 @@
         <v>44300</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20018,7 +20018,7 @@
         <v>46051.53651620371</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20080,7 +20080,7 @@
         <v>45516.56214120371</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20137,7 +20137,7 @@
         <v>45271.62900462963</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20194,7 +20194,7 @@
         <v>45268</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20251,7 +20251,7 @@
         <v>45210.51917824074</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20308,7 +20308,7 @@
         <v>46057.48568287037</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20370,7 +20370,7 @@
         <v>45350.92024305555</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20427,7 +20427,7 @@
         <v>45162</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20489,7 +20489,7 @@
         <v>45215</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20566,7 +20566,7 @@
         <v>45210.59091435185</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20623,7 +20623,7 @@
         <v>44993.37150462963</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20680,7 +20680,7 @@
         <v>45702.38982638889</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20742,7 +20742,7 @@
         <v>44890.6440162037</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20799,7 +20799,7 @@
         <v>45761.60090277778</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20856,7 +20856,7 @@
         <v>44447.32616898148</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20913,7 +20913,7 @@
         <v>44973</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20970,7 +20970,7 @@
         <v>44614</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21032,7 +21032,7 @@
         <v>44816.47021990741</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21089,7 +21089,7 @@
         <v>45583</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21146,7 +21146,7 @@
         <v>44943.78166666667</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21203,7 +21203,7 @@
         <v>44981</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21260,7 +21260,7 @@
         <v>45210.5324537037</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21317,7 +21317,7 @@
         <v>44756.37861111111</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21374,7 +21374,7 @@
         <v>45412.63122685185</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21431,7 +21431,7 @@
         <v>45412.85292824074</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21488,7 +21488,7 @@
         <v>44965</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21545,7 +21545,7 @@
         <v>44496.35680555556</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21602,7 +21602,7 @@
         <v>45200.84795138889</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21659,7 +21659,7 @@
         <v>45590.43114583333</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21721,7 +21721,7 @@
         <v>45709.47332175926</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21778,7 +21778,7 @@
         <v>45607.97825231482</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21835,7 +21835,7 @@
         <v>45441</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21897,7 +21897,7 @@
         <v>45211.36153935185</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21954,7 +21954,7 @@
         <v>45114.33414351852</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22011,7 +22011,7 @@
         <v>44489</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22073,7 +22073,7 @@
         <v>45289</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22135,7 +22135,7 @@
         <v>45548.58743055556</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22192,7 +22192,7 @@
         <v>45211.65027777778</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22249,7 +22249,7 @@
         <v>45708.62912037037</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22306,7 +22306,7 @@
         <v>44881</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22363,7 +22363,7 @@
         <v>45460.6934837963</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22420,7 +22420,7 @@
         <v>45524.59075231481</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22477,7 +22477,7 @@
         <v>44553</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22534,7 +22534,7 @@
         <v>44238</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22591,7 +22591,7 @@
         <v>45590.42981481482</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22653,7 +22653,7 @@
         <v>45597.58248842593</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22710,7 +22710,7 @@
         <v>45560.31561342593</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22772,7 +22772,7 @@
         <v>44649.55983796297</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22829,7 +22829,7 @@
         <v>44617</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22891,7 +22891,7 @@
         <v>45112</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22953,7 +22953,7 @@
         <v>45097.4265162037</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23015,7 +23015,7 @@
         <v>45706.56320601852</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23072,7 +23072,7 @@
         <v>45722.57545138889</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23129,7 +23129,7 @@
         <v>44616</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23191,7 +23191,7 @@
         <v>45590.43452546297</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23253,7 +23253,7 @@
         <v>45070.58734953704</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23310,7 +23310,7 @@
         <v>45751.53894675926</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23367,7 +23367,7 @@
         <v>44999</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23424,7 +23424,7 @@
         <v>45200.85653935185</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23481,7 +23481,7 @@
         <v>45528.60868055555</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23538,7 +23538,7 @@
         <v>45210.5391087963</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23595,7 +23595,7 @@
         <v>45709.47657407408</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23652,7 +23652,7 @@
         <v>44848.63724537037</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23709,7 +23709,7 @@
         <v>45260</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23766,7 +23766,7 @@
         <v>45393.63282407408</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23823,7 +23823,7 @@
         <v>45516.55818287037</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23880,7 +23880,7 @@
         <v>44746.56627314815</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23937,7 +23937,7 @@
         <v>45516.56393518519</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23994,7 +23994,7 @@
         <v>45705.48096064815</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24051,7 +24051,7 @@
         <v>45705.48537037037</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24108,7 +24108,7 @@
         <v>45674.33168981481</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24165,7 +24165,7 @@
         <v>44917</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24222,7 +24222,7 @@
         <v>45560.34092592593</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24284,7 +24284,7 @@
         <v>45702.39122685185</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24346,7 +24346,7 @@
         <v>45727.34619212963</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24403,7 +24403,7 @@
         <v>45691.58796296296</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24460,7 +24460,7 @@
         <v>45265</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24522,7 +24522,7 @@
         <v>45211.67170138889</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24579,7 +24579,7 @@
         <v>45720</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24636,7 +24636,7 @@
         <v>45299.79818287037</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24693,7 +24693,7 @@
         <v>45777.56768518518</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24750,7 +24750,7 @@
         <v>45720</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24807,7 +24807,7 @@
         <v>45783.59091435185</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24869,7 +24869,7 @@
         <v>45783.59233796296</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24931,7 +24931,7 @@
         <v>45783.59347222222</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24993,7 +24993,7 @@
         <v>45684.58362268518</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25055,7 +25055,7 @@
         <v>44445</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25112,7 +25112,7 @@
         <v>45307.69517361111</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25169,7 +25169,7 @@
         <v>45786.55561342592</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25231,7 +25231,7 @@
         <v>45516.56032407407</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25288,7 +25288,7 @@
         <v>45789.6285300926</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25345,7 +25345,7 @@
         <v>45786.55434027778</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25407,7 +25407,7 @@
         <v>45590.50378472222</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25464,7 +25464,7 @@
         <v>45545</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25521,7 +25521,7 @@
         <v>45709.46944444445</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25578,7 +25578,7 @@
         <v>45728.61773148148</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25640,7 +25640,7 @@
         <v>45728.61907407407</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25702,7 +25702,7 @@
         <v>45727.46413194444</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25759,7 +25759,7 @@
         <v>44521</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25816,7 +25816,7 @@
         <v>45705</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25873,7 +25873,7 @@
         <v>45716.26827546296</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25935,7 +25935,7 @@
         <v>45616</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25992,7 +25992,7 @@
         <v>45723.45986111111</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26054,7 +26054,7 @@
         <v>45211</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26111,7 +26111,7 @@
         <v>45716.26694444445</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26173,7 +26173,7 @@
         <v>45728.61289351852</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26235,7 +26235,7 @@
         <v>45502.71954861111</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26292,7 +26292,7 @@
         <v>45728.61486111111</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26354,7 +26354,7 @@
         <v>45728.61689814815</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26416,7 +26416,7 @@
         <v>45709.47069444445</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26473,7 +26473,7 @@
         <v>45790.56325231482</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26530,7 +26530,7 @@
         <v>45743.46834490741</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26587,7 +26587,7 @@
         <v>45716.64101851852</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26644,7 +26644,7 @@
         <v>45331.4083912037</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26701,7 +26701,7 @@
         <v>45610.62446759259</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26758,7 +26758,7 @@
         <v>45600</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>

--- a/Översikt MARIESTAD.xlsx
+++ b/Översikt MARIESTAD.xlsx
@@ -575,7 +575,7 @@
         <v>45691.58489583333</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44473</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         <v>45708.62547453704</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         <v>45664.6258912037</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -949,7 +949,7 @@
         <v>44648</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1036,7 +1036,7 @@
         <v>44484</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>45911.63658564815</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
         <v>45203</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         <v>44524</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>44628</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1480,7 +1480,7 @@
         <v>45222.72725694445</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1566,7 +1566,7 @@
         <v>45015.46353009259</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         <v>45201.33994212963</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         <v>44461</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         <v>44610.35016203704</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1924,7 +1924,7 @@
         <v>45821.63221064815</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2014,7 +2014,7 @@
         <v>45821.63375</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2104,7 +2104,7 @@
         <v>45911.6475462963</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2189,7 +2189,7 @@
         <v>45035.43792824074</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2274,7 +2274,7 @@
         <v>45947.64873842592</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2359,7 +2359,7 @@
         <v>44974</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2448,7 +2448,7 @@
         <v>44880.67344907407</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2533,7 +2533,7 @@
         <v>45330</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
         <v>45761.65479166667</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
         <v>45210</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2788,7 +2788,7 @@
         <v>45716.26487268518</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2878,7 +2878,7 @@
         <v>44619.80266203704</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2935,7 +2935,7 @@
         <v>44383</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2992,7 +2992,7 @@
         <v>44574</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         <v>44461</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         <v>44852</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3163,7 +3163,7 @@
         <v>44840.30342592593</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         <v>44473.49318287037</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
         <v>44746.47386574074</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3334,7 +3334,7 @@
         <v>44484</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3391,7 +3391,7 @@
         <v>44279</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3453,7 +3453,7 @@
         <v>44446</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
         <v>44356</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3567,7 +3567,7 @@
         <v>44460.49046296296</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>44461</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>44523</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
         <v>44539.55670138889</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>44614</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3857,7 +3857,7 @@
         <v>44766.64856481482</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3914,7 +3914,7 @@
         <v>44337</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
         <v>44880</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4028,7 +4028,7 @@
         <v>44361</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4085,7 +4085,7 @@
         <v>44438.53459490741</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
         <v>44546</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4199,7 +4199,7 @@
         <v>44447.32269675926</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4256,7 +4256,7 @@
         <v>44260.52445601852</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4313,7 +4313,7 @@
         <v>44404</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4370,7 +4370,7 @@
         <v>44453.69256944444</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4427,7 +4427,7 @@
         <v>44496.26841435185</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4489,7 +4489,7 @@
         <v>44758</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         <v>44693</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4603,7 +4603,7 @@
         <v>44340</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4660,7 +4660,7 @@
         <v>44433.41525462963</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4717,7 +4717,7 @@
         <v>44649</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4774,7 +4774,7 @@
         <v>44571</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4831,7 +4831,7 @@
         <v>44445</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4888,7 +4888,7 @@
         <v>44371</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4945,7 +4945,7 @@
         <v>44354.61337962963</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5002,7 +5002,7 @@
         <v>44880</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         <v>44581.30111111111</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5121,7 +5121,7 @@
         <v>44256</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5178,7 +5178,7 @@
         <v>44526.32285879629</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5240,7 +5240,7 @@
         <v>44446</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5297,7 +5297,7 @@
         <v>44264.26887731482</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5359,7 +5359,7 @@
         <v>44440</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5416,7 +5416,7 @@
         <v>44344</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5473,7 +5473,7 @@
         <v>44523</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5530,7 +5530,7 @@
         <v>44455.72633101852</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5587,7 +5587,7 @@
         <v>44592.403125</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5644,7 +5644,7 @@
         <v>44530</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5701,7 +5701,7 @@
         <v>45674.33615740741</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5758,7 +5758,7 @@
         <v>45435</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5820,7 +5820,7 @@
         <v>44630.53233796296</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
         <v>44363.29069444445</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5934,7 +5934,7 @@
         <v>45628.53997685185</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5991,7 +5991,7 @@
         <v>45590.41381944445</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6053,7 +6053,7 @@
         <v>45702.38752314815</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6115,7 +6115,7 @@
         <v>44843.6315625</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6172,7 +6172,7 @@
         <v>45677.82644675926</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6229,7 +6229,7 @@
         <v>44830</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6286,7 +6286,7 @@
         <v>44574.24587962963</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6343,7 +6343,7 @@
         <v>45762.31956018518</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6405,7 +6405,7 @@
         <v>45762.32237268519</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6467,7 +6467,7 @@
         <v>45397</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6524,7 +6524,7 @@
         <v>45705.47967592593</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6581,7 +6581,7 @@
         <v>44629</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         <v>45590.4659837963</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6700,7 +6700,7 @@
         <v>44830</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6757,7 +6757,7 @@
         <v>45324</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6814,7 +6814,7 @@
         <v>45470.49233796296</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6876,7 +6876,7 @@
         <v>45469.35059027778</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6933,7 +6933,7 @@
         <v>44847</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6990,7 +6990,7 @@
         <v>45097.42556712963</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7047,7 +7047,7 @@
         <v>44521</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7104,7 +7104,7 @@
         <v>45600.69061342593</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7161,7 +7161,7 @@
         <v>45210.57178240741</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7218,7 +7218,7 @@
         <v>45210.59508101852</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7275,7 +7275,7 @@
         <v>45705.4209837963</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>44746.41878472222</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7389,7 +7389,7 @@
         <v>44942.71665509259</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7446,7 +7446,7 @@
         <v>45798.39030092592</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7508,7 +7508,7 @@
         <v>45798.40402777777</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         <v>44536.40289351852</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         <v>45691.32157407407</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7689,7 +7689,7 @@
         <v>45691.3403587963</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7751,7 +7751,7 @@
         <v>44693.65290509259</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7808,7 +7808,7 @@
         <v>45170</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7865,7 +7865,7 @@
         <v>44971</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7922,7 +7922,7 @@
         <v>45798.39853009259</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7984,7 +7984,7 @@
         <v>44993</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8046,7 +8046,7 @@
         <v>45097.40554398148</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8103,7 +8103,7 @@
         <v>45240</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8160,7 +8160,7 @@
         <v>44797.32917824074</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8217,7 +8217,7 @@
         <v>45887.65668981482</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8279,7 +8279,7 @@
         <v>45716.55226851852</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8341,7 +8341,7 @@
         <v>45163.45347222222</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8403,7 +8403,7 @@
         <v>45343.59774305556</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8460,7 +8460,7 @@
         <v>45804.4008912037</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8522,7 +8522,7 @@
         <v>45268</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8579,7 +8579,7 @@
         <v>45804.40251157407</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8641,7 +8641,7 @@
         <v>45804.59694444444</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8698,7 +8698,7 @@
         <v>45804.40402777777</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8760,7 +8760,7 @@
         <v>45804.55891203704</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>45804.59502314815</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>45373.68430555556</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>45804.56056712963</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>45754.48366898148</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9055,7 +9055,7 @@
         <v>45889</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9112,7 +9112,7 @@
         <v>44351</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9174,7 +9174,7 @@
         <v>45245</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9231,7 +9231,7 @@
         <v>45265</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>45810.63402777778</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         <v>45817.60978009259</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>45560.31390046296</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9469,7 +9469,7 @@
         <v>44426</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9526,7 +9526,7 @@
         <v>44746.41486111111</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9583,7 +9583,7 @@
         <v>44746.42554398148</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9640,7 +9640,7 @@
         <v>44536</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9702,7 +9702,7 @@
         <v>45393.62962962963</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9759,7 +9759,7 @@
         <v>45897.66349537037</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9816,7 +9816,7 @@
         <v>45818.62532407408</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9873,7 +9873,7 @@
         <v>45819.4</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9930,7 +9930,7 @@
         <v>45819.40282407407</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9987,7 +9987,7 @@
         <v>44901.49652777778</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10049,7 +10049,7 @@
         <v>45819.39317129629</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10106,7 +10106,7 @@
         <v>45821.30320601852</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10163,7 +10163,7 @@
         <v>45820.63811342593</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10220,7 +10220,7 @@
         <v>45820.64241898148</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10277,7 +10277,7 @@
         <v>45673</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10334,7 +10334,7 @@
         <v>45903.4885300926</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10391,7 +10391,7 @@
         <v>45825</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10448,7 +10448,7 @@
         <v>45824.66903935185</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10505,7 +10505,7 @@
         <v>45824.3672337963</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10562,7 +10562,7 @@
         <v>45908.5827662037</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10619,7 +10619,7 @@
         <v>45824.82013888889</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10676,7 +10676,7 @@
         <v>45909.62569444445</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10733,7 +10733,7 @@
         <v>45909</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10790,7 +10790,7 @@
         <v>44883.53908564815</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10852,7 +10852,7 @@
         <v>45909.62886574074</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10909,7 +10909,7 @@
         <v>45909.62775462963</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10966,7 +10966,7 @@
         <v>45825.49831018518</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11028,7 +11028,7 @@
         <v>45909.62460648148</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11085,7 +11085,7 @@
         <v>44414.531875</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11147,7 +11147,7 @@
         <v>45825.49658564815</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
         <v>45825.50122685185</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11271,7 +11271,7 @@
         <v>45911.63373842592</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>45911.63979166667</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         <v>45827.60287037037</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11452,7 +11452,7 @@
         <v>45911.63810185185</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11514,7 +11514,7 @@
         <v>45911.58439814814</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11571,7 +11571,7 @@
         <v>45744.57194444445</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11628,7 +11628,7 @@
         <v>45827.59276620371</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11690,7 +11690,7 @@
         <v>45682</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11747,7 +11747,7 @@
         <v>45199</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11804,7 +11804,7 @@
         <v>44958</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11861,7 +11861,7 @@
         <v>45916.51296296297</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11918,7 +11918,7 @@
         <v>45548.48182870371</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11975,7 +11975,7 @@
         <v>44964.69994212963</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12032,7 +12032,7 @@
         <v>45918.70782407407</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12089,7 +12089,7 @@
         <v>45922.35247685185</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12146,7 +12146,7 @@
         <v>45201</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12203,7 +12203,7 @@
         <v>45922.54543981481</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12265,7 +12265,7 @@
         <v>45167</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12322,7 +12322,7 @@
         <v>44774</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12379,7 +12379,7 @@
         <v>44937</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12436,7 +12436,7 @@
         <v>45764.52909722222</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12493,7 +12493,7 @@
         <v>44965.64119212963</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12550,7 +12550,7 @@
         <v>44994.8055787037</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12607,7 +12607,7 @@
         <v>44386</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12664,7 +12664,7 @@
         <v>44645</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12726,7 +12726,7 @@
         <v>44836.73601851852</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12783,7 +12783,7 @@
         <v>45769.51013888889</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12840,7 +12840,7 @@
         <v>45769.51427083334</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12897,7 +12897,7 @@
         <v>45841.50793981482</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12959,7 +12959,7 @@
         <v>45722.57290509259</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13016,7 +13016,7 @@
         <v>45222.73658564815</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13073,7 +13073,7 @@
         <v>44843</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13130,7 +13130,7 @@
         <v>44865</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13187,7 +13187,7 @@
         <v>45716.50848379629</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13249,7 +13249,7 @@
         <v>45938.3840625</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13306,7 +13306,7 @@
         <v>45840</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13363,7 +13363,7 @@
         <v>45841.42353009259</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13425,7 +13425,7 @@
         <v>45705</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13482,7 +13482,7 @@
         <v>45937.61165509259</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13539,7 +13539,7 @@
         <v>44638</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13596,7 +13596,7 @@
         <v>45443.50011574074</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13653,7 +13653,7 @@
         <v>44936</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13710,7 +13710,7 @@
         <v>44812.31384259259</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13767,7 +13767,7 @@
         <v>45832.85302083333</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13824,7 +13824,7 @@
         <v>44356</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13881,7 +13881,7 @@
         <v>45201.35621527778</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13938,7 +13938,7 @@
         <v>45203</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13995,7 +13995,7 @@
         <v>45720</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14052,7 +14052,7 @@
         <v>45947.65197916667</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14109,7 +14109,7 @@
         <v>44986</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14166,7 +14166,7 @@
         <v>44620.36565972222</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14223,7 +14223,7 @@
         <v>45762.32105324074</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14285,7 +14285,7 @@
         <v>45211</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14342,7 +14342,7 @@
         <v>45211</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14399,7 +14399,7 @@
         <v>45266.87113425926</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14456,7 +14456,7 @@
         <v>44972.48915509259</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14513,7 +14513,7 @@
         <v>45873.53010416667</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14570,7 +14570,7 @@
         <v>45958.43296296296</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14627,7 +14627,7 @@
         <v>45958.44686342592</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14684,7 +14684,7 @@
         <v>44974</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14741,7 +14741,7 @@
         <v>45875</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14803,7 +14803,7 @@
         <v>45070</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14865,7 +14865,7 @@
         <v>45131</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14922,7 +14922,7 @@
         <v>45875.6099537037</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14979,7 +14979,7 @@
         <v>45875.4712037037</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15036,7 +15036,7 @@
         <v>45664.63055555556</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15093,7 +15093,7 @@
         <v>45958.44865740741</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15150,7 +15150,7 @@
         <v>44994.81083333334</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15207,7 +15207,7 @@
         <v>45033</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15264,7 +15264,7 @@
         <v>45558.33138888889</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15321,7 +15321,7 @@
         <v>45210.57627314814</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15378,7 +15378,7 @@
         <v>45210.58008101852</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15435,7 +15435,7 @@
         <v>44943</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15492,7 +15492,7 @@
         <v>45960.64665509259</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15549,7 +15549,7 @@
         <v>45181</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15606,7 +15606,7 @@
         <v>45965.53032407408</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15663,7 +15663,7 @@
         <v>45343</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15720,7 +15720,7 @@
         <v>44943.665625</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15777,7 +15777,7 @@
         <v>45966.67394675926</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15834,7 +15834,7 @@
         <v>45135</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15891,7 +15891,7 @@
         <v>45972.57346064815</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15953,7 +15953,7 @@
         <v>44935.3791550926</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16010,7 +16010,7 @@
         <v>45973.47078703704</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16067,7 +16067,7 @@
         <v>45384</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16124,7 +16124,7 @@
         <v>45887.62195601852</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16186,7 +16186,7 @@
         <v>45628.67807870371</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16243,7 +16243,7 @@
         <v>45887.65802083333</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16305,7 +16305,7 @@
         <v>45887.65528935185</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16367,7 +16367,7 @@
         <v>45748.34873842593</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16424,7 +16424,7 @@
         <v>45006</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16481,7 +16481,7 @@
         <v>45225.63690972222</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16538,7 +16538,7 @@
         <v>45188.55583333333</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16600,7 +16600,7 @@
         <v>45329.57056712963</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16657,7 +16657,7 @@
         <v>45981.81599537037</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16714,7 +16714,7 @@
         <v>44739</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16776,7 +16776,7 @@
         <v>45628.39192129629</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16838,7 +16838,7 @@
         <v>45761.59930555556</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16895,7 +16895,7 @@
         <v>45015.67859953704</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16952,7 +16952,7 @@
         <v>45324</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17014,7 +17014,7 @@
         <v>46029.47251157407</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17076,7 +17076,7 @@
         <v>44756.36030092592</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17133,7 +17133,7 @@
         <v>44936</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17190,7 +17190,7 @@
         <v>46029.47435185185</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17252,7 +17252,7 @@
         <v>45989.31944444445</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17309,7 +17309,7 @@
         <v>45639.71925925926</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17366,7 +17366,7 @@
         <v>45239.49313657408</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17428,7 +17428,7 @@
         <v>45535.51828703703</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17485,7 +17485,7 @@
         <v>45243</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17542,7 +17542,7 @@
         <v>45412.63918981481</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17599,7 +17599,7 @@
         <v>45412.85439814815</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17656,7 +17656,7 @@
         <v>46035.39893518519</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17713,7 +17713,7 @@
         <v>45544.47037037037</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17770,7 +17770,7 @@
         <v>45271.44229166667</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17827,7 +17827,7 @@
         <v>45268</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17884,7 +17884,7 @@
         <v>45530.40872685185</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17941,7 +17941,7 @@
         <v>46037.34707175926</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17998,7 +17998,7 @@
         <v>44572</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18060,7 +18060,7 @@
         <v>44903.59100694444</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18117,7 +18117,7 @@
         <v>45705.47484953704</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18174,7 +18174,7 @@
         <v>45705.47769675926</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18231,7 +18231,7 @@
         <v>45982</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18288,7 +18288,7 @@
         <v>45722.55954861111</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18345,7 +18345,7 @@
         <v>45727.40679398148</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18402,7 +18402,7 @@
         <v>45271.62438657408</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18459,7 +18459,7 @@
         <v>44523.37383101852</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18516,7 +18516,7 @@
         <v>44986</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18573,7 +18573,7 @@
         <v>45217</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18630,7 +18630,7 @@
         <v>45217.39053240741</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18687,7 +18687,7 @@
         <v>44930.62032407407</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18744,7 +18744,7 @@
         <v>46042.52333333333</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18801,7 +18801,7 @@
         <v>45330.53326388889</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18858,7 +18858,7 @@
         <v>46000.39114583333</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18915,7 +18915,7 @@
         <v>46003.38299768518</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18972,7 +18972,7 @@
         <v>46003.38445601852</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19029,7 +19029,7 @@
         <v>46003.3855787037</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19086,7 +19086,7 @@
         <v>46003.3871412037</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19143,7 +19143,7 @@
         <v>45015.53054398148</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19200,7 +19200,7 @@
         <v>44876.42122685185</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19262,7 +19262,7 @@
         <v>44900</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19319,7 +19319,7 @@
         <v>46007.59984953704</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19376,7 +19376,7 @@
         <v>44371</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19438,7 +19438,7 @@
         <v>44812.25462962963</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19495,7 +19495,7 @@
         <v>44957</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19552,7 +19552,7 @@
         <v>46007.45995370371</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19609,7 +19609,7 @@
         <v>46009</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19671,7 +19671,7 @@
         <v>45371.44770833333</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19728,7 +19728,7 @@
         <v>46050.52313657408</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19785,7 +19785,7 @@
         <v>46050.52133101852</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19842,7 +19842,7 @@
         <v>44622.43478009259</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19899,7 +19899,7 @@
         <v>46008.36337962963</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19961,7 +19961,7 @@
         <v>44300</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20018,7 +20018,7 @@
         <v>46051.53651620371</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20080,7 +20080,7 @@
         <v>45516.56214120371</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20137,7 +20137,7 @@
         <v>45271.62900462963</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20194,7 +20194,7 @@
         <v>45268</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20251,7 +20251,7 @@
         <v>45210.51917824074</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20308,7 +20308,7 @@
         <v>46057.48568287037</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20370,7 +20370,7 @@
         <v>45350.92024305555</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20427,7 +20427,7 @@
         <v>45162</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20489,7 +20489,7 @@
         <v>45215</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20566,7 +20566,7 @@
         <v>45210.59091435185</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20623,7 +20623,7 @@
         <v>44993.37150462963</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20680,7 +20680,7 @@
         <v>45702.38982638889</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20742,7 +20742,7 @@
         <v>44890.6440162037</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20799,7 +20799,7 @@
         <v>45761.60090277778</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20856,7 +20856,7 @@
         <v>44447.32616898148</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20913,7 +20913,7 @@
         <v>44973</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20970,7 +20970,7 @@
         <v>44614</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21032,7 +21032,7 @@
         <v>44816.47021990741</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21089,7 +21089,7 @@
         <v>45583</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21146,7 +21146,7 @@
         <v>44943.78166666667</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21203,7 +21203,7 @@
         <v>44981</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21260,7 +21260,7 @@
         <v>45210.5324537037</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21317,7 +21317,7 @@
         <v>44756.37861111111</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21374,7 +21374,7 @@
         <v>45412.63122685185</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21431,7 +21431,7 @@
         <v>45412.85292824074</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21488,7 +21488,7 @@
         <v>44965</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21545,7 +21545,7 @@
         <v>44496.35680555556</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21602,7 +21602,7 @@
         <v>45200.84795138889</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21659,7 +21659,7 @@
         <v>45590.43114583333</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21721,7 +21721,7 @@
         <v>45709.47332175926</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21778,7 +21778,7 @@
         <v>45607.97825231482</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21835,7 +21835,7 @@
         <v>45441</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21897,7 +21897,7 @@
         <v>45211.36153935185</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21954,7 +21954,7 @@
         <v>45114.33414351852</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22011,7 +22011,7 @@
         <v>44489</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22073,7 +22073,7 @@
         <v>45289</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22135,7 +22135,7 @@
         <v>45548.58743055556</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22192,7 +22192,7 @@
         <v>45211.65027777778</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22249,7 +22249,7 @@
         <v>45708.62912037037</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22306,7 +22306,7 @@
         <v>44881</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22363,7 +22363,7 @@
         <v>45460.6934837963</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22420,7 +22420,7 @@
         <v>45524.59075231481</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22477,7 +22477,7 @@
         <v>44553</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22534,7 +22534,7 @@
         <v>44238</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22591,7 +22591,7 @@
         <v>45590.42981481482</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22653,7 +22653,7 @@
         <v>45597.58248842593</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22710,7 +22710,7 @@
         <v>45560.31561342593</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22772,7 +22772,7 @@
         <v>44649.55983796297</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22829,7 +22829,7 @@
         <v>44617</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22891,7 +22891,7 @@
         <v>45112</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22953,7 +22953,7 @@
         <v>45097.4265162037</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23015,7 +23015,7 @@
         <v>45706.56320601852</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23072,7 +23072,7 @@
         <v>45722.57545138889</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23129,7 +23129,7 @@
         <v>44616</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23191,7 +23191,7 @@
         <v>45590.43452546297</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23253,7 +23253,7 @@
         <v>45070.58734953704</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23310,7 +23310,7 @@
         <v>45751.53894675926</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23367,7 +23367,7 @@
         <v>44999</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23424,7 +23424,7 @@
         <v>45200.85653935185</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23481,7 +23481,7 @@
         <v>45528.60868055555</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23538,7 +23538,7 @@
         <v>45210.5391087963</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23595,7 +23595,7 @@
         <v>45709.47657407408</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23652,7 +23652,7 @@
         <v>44848.63724537037</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23709,7 +23709,7 @@
         <v>45260</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23766,7 +23766,7 @@
         <v>45393.63282407408</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23823,7 +23823,7 @@
         <v>45516.55818287037</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23880,7 +23880,7 @@
         <v>44746.56627314815</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23937,7 +23937,7 @@
         <v>45516.56393518519</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23994,7 +23994,7 @@
         <v>45705.48096064815</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24051,7 +24051,7 @@
         <v>45705.48537037037</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24108,7 +24108,7 @@
         <v>45674.33168981481</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24165,7 +24165,7 @@
         <v>44917</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24222,7 +24222,7 @@
         <v>45560.34092592593</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24284,7 +24284,7 @@
         <v>45702.39122685185</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24346,7 +24346,7 @@
         <v>45727.34619212963</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24403,7 +24403,7 @@
         <v>45691.58796296296</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24460,7 +24460,7 @@
         <v>45265</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24522,7 +24522,7 @@
         <v>45211.67170138889</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24579,7 +24579,7 @@
         <v>45720</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24636,7 +24636,7 @@
         <v>45299.79818287037</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24693,7 +24693,7 @@
         <v>45777.56768518518</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24750,7 +24750,7 @@
         <v>45720</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24807,7 +24807,7 @@
         <v>45783.59091435185</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24869,7 +24869,7 @@
         <v>45783.59233796296</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24931,7 +24931,7 @@
         <v>45783.59347222222</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24993,7 +24993,7 @@
         <v>45684.58362268518</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25055,7 +25055,7 @@
         <v>44445</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25112,7 +25112,7 @@
         <v>45307.69517361111</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25169,7 +25169,7 @@
         <v>45786.55561342592</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25231,7 +25231,7 @@
         <v>45516.56032407407</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25288,7 +25288,7 @@
         <v>45789.6285300926</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25345,7 +25345,7 @@
         <v>45786.55434027778</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25407,7 +25407,7 @@
         <v>45590.50378472222</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25464,7 +25464,7 @@
         <v>45545</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25521,7 +25521,7 @@
         <v>45709.46944444445</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25578,7 +25578,7 @@
         <v>45728.61773148148</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25640,7 +25640,7 @@
         <v>45728.61907407407</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25702,7 +25702,7 @@
         <v>45727.46413194444</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25759,7 +25759,7 @@
         <v>44521</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25816,7 +25816,7 @@
         <v>45705</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25873,7 +25873,7 @@
         <v>45716.26827546296</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25935,7 +25935,7 @@
         <v>45616</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25992,7 +25992,7 @@
         <v>45723.45986111111</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26054,7 +26054,7 @@
         <v>45211</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26111,7 +26111,7 @@
         <v>45716.26694444445</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26173,7 +26173,7 @@
         <v>45728.61289351852</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26235,7 +26235,7 @@
         <v>45502.71954861111</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26292,7 +26292,7 @@
         <v>45728.61486111111</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26354,7 +26354,7 @@
         <v>45728.61689814815</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26416,7 +26416,7 @@
         <v>45709.47069444445</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26473,7 +26473,7 @@
         <v>45790.56325231482</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26530,7 +26530,7 @@
         <v>45743.46834490741</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26587,7 +26587,7 @@
         <v>45716.64101851852</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26644,7 +26644,7 @@
         <v>45331.4083912037</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26701,7 +26701,7 @@
         <v>45610.62446759259</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26758,7 +26758,7 @@
         <v>45600</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>

--- a/Översikt MARIESTAD.xlsx
+++ b/Översikt MARIESTAD.xlsx
@@ -575,7 +575,7 @@
         <v>45691.58489583333</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44473</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         <v>45708.62547453704</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         <v>45664.6258912037</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -949,7 +949,7 @@
         <v>44648</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1036,7 +1036,7 @@
         <v>45203</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>45911.63658564815</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
         <v>44524</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         <v>44484</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>44628</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1480,7 +1480,7 @@
         <v>45222.72725694445</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1566,7 +1566,7 @@
         <v>45015.46353009259</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         <v>45201.33994212963</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         <v>44461</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         <v>44610.35016203704</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1924,7 +1924,7 @@
         <v>45821.63221064815</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2014,7 +2014,7 @@
         <v>45821.63375</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2104,7 +2104,7 @@
         <v>45911.6475462963</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2189,7 +2189,7 @@
         <v>45035.43792824074</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2274,7 +2274,7 @@
         <v>44974</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2363,7 +2363,7 @@
         <v>45947.64873842592</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2448,7 +2448,7 @@
         <v>44880.67344907407</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2533,7 +2533,7 @@
         <v>45330</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
         <v>45761.65479166667</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
         <v>45210</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2788,7 +2788,7 @@
         <v>45716.26487268518</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2878,7 +2878,7 @@
         <v>44619.80266203704</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2935,7 +2935,7 @@
         <v>44461</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2992,7 +2992,7 @@
         <v>44383</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         <v>44574</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         <v>44746.47386574074</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3163,7 +3163,7 @@
         <v>44840.30342592593</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         <v>44852</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
         <v>44473.49318287037</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3334,7 +3334,7 @@
         <v>44484</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3391,7 +3391,7 @@
         <v>44279</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3453,7 +3453,7 @@
         <v>44446</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
         <v>44356</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3567,7 +3567,7 @@
         <v>44460.49046296296</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>44461</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>44539.55670138889</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
         <v>44523</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>44614</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3857,7 +3857,7 @@
         <v>44337</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3914,7 +3914,7 @@
         <v>44766.64856481482</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
         <v>44880</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4028,7 +4028,7 @@
         <v>44361</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4085,7 +4085,7 @@
         <v>44546</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
         <v>44438.53459490741</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4199,7 +4199,7 @@
         <v>44447.32269675926</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4256,7 +4256,7 @@
         <v>44260.52445601852</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4313,7 +4313,7 @@
         <v>44404</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4370,7 +4370,7 @@
         <v>44496.26841435185</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4432,7 +4432,7 @@
         <v>44453.69256944444</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4489,7 +4489,7 @@
         <v>44758</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         <v>44693</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4603,7 +4603,7 @@
         <v>44340</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4660,7 +4660,7 @@
         <v>44433.41525462963</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4717,7 +4717,7 @@
         <v>44649</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4774,7 +4774,7 @@
         <v>44571</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4831,7 +4831,7 @@
         <v>44445</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4888,7 +4888,7 @@
         <v>44371</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4945,7 +4945,7 @@
         <v>44354.61337962963</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5002,7 +5002,7 @@
         <v>44880</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         <v>44581.30111111111</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5121,7 +5121,7 @@
         <v>44256</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5178,7 +5178,7 @@
         <v>44526.32285879629</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5240,7 +5240,7 @@
         <v>44446</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5297,7 +5297,7 @@
         <v>44264.26887731482</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5359,7 +5359,7 @@
         <v>44440</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5416,7 +5416,7 @@
         <v>44344</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5473,7 +5473,7 @@
         <v>44523</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5530,7 +5530,7 @@
         <v>44455.72633101852</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5587,7 +5587,7 @@
         <v>44592.403125</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5644,7 +5644,7 @@
         <v>44530</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5701,7 +5701,7 @@
         <v>45674.33615740741</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5758,7 +5758,7 @@
         <v>44363.29069444445</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5815,7 +5815,7 @@
         <v>45435</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
         <v>44630.53233796296</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5934,7 +5934,7 @@
         <v>45628.53997685185</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5991,7 +5991,7 @@
         <v>45590.41381944445</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6053,7 +6053,7 @@
         <v>45702.38752314815</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6115,7 +6115,7 @@
         <v>44843.6315625</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6172,7 +6172,7 @@
         <v>45677.82644675926</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6229,7 +6229,7 @@
         <v>44830</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6286,7 +6286,7 @@
         <v>45762.31956018518</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6348,7 +6348,7 @@
         <v>45762.32237268519</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6410,7 +6410,7 @@
         <v>44574.24587962963</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6467,7 +6467,7 @@
         <v>45397</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6524,7 +6524,7 @@
         <v>45705.47967592593</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6581,7 +6581,7 @@
         <v>44629</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         <v>45590.4659837963</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6700,7 +6700,7 @@
         <v>44830</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6757,7 +6757,7 @@
         <v>45324</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6814,7 +6814,7 @@
         <v>45470.49233796296</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6876,7 +6876,7 @@
         <v>45097.42556712963</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6933,7 +6933,7 @@
         <v>45469.35059027778</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6990,7 +6990,7 @@
         <v>44847</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7047,7 +7047,7 @@
         <v>45600.69061342593</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7104,7 +7104,7 @@
         <v>44521</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7161,7 +7161,7 @@
         <v>45210.57178240741</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7218,7 +7218,7 @@
         <v>45210.59508101852</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7275,7 +7275,7 @@
         <v>45705.4209837963</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>44746.41878472222</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7389,7 +7389,7 @@
         <v>44942.71665509259</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7446,7 +7446,7 @@
         <v>45691.32157407407</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7508,7 +7508,7 @@
         <v>45691.3403587963</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         <v>44693.65290509259</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         <v>44536.40289351852</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7684,7 +7684,7 @@
         <v>45240</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7741,7 +7741,7 @@
         <v>44797.32917824074</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7798,7 +7798,7 @@
         <v>44971</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7855,7 +7855,7 @@
         <v>44993</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7917,7 +7917,7 @@
         <v>45097.40554398148</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7974,7 +7974,7 @@
         <v>45170</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8031,7 +8031,7 @@
         <v>45268</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8088,7 +8088,7 @@
         <v>45163.45347222222</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8150,7 +8150,7 @@
         <v>45343.59774305556</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8207,7 +8207,7 @@
         <v>45716.55226851852</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8269,7 +8269,7 @@
         <v>45373.68430555556</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8326,7 +8326,7 @@
         <v>44351</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8388,7 +8388,7 @@
         <v>45265</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         <v>45818.62532407408</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>45819.4</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>45560.31390046296</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         <v>45819.40282407407</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8683,7 +8683,7 @@
         <v>44426</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8740,7 +8740,7 @@
         <v>44746.41486111111</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8797,7 +8797,7 @@
         <v>44746.42554398148</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8854,7 +8854,7 @@
         <v>44536</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8916,7 +8916,7 @@
         <v>45887.65668981482</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8978,7 +8978,7 @@
         <v>45393.62962962963</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9035,7 +9035,7 @@
         <v>45819.39317129629</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9092,7 +9092,7 @@
         <v>45821.30320601852</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9149,7 +9149,7 @@
         <v>45820.63811342593</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9206,7 +9206,7 @@
         <v>45820.64241898148</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9263,7 +9263,7 @@
         <v>44901.49652777778</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9325,7 +9325,7 @@
         <v>45825</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9382,7 +9382,7 @@
         <v>45889</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9439,7 +9439,7 @@
         <v>45824.66903935185</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9496,7 +9496,7 @@
         <v>45824.3672337963</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9553,7 +9553,7 @@
         <v>45824.82013888889</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9610,7 +9610,7 @@
         <v>45673</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9667,7 +9667,7 @@
         <v>45245</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9724,7 +9724,7 @@
         <v>45825.49831018518</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9786,7 +9786,7 @@
         <v>45825.49658564815</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9848,7 +9848,7 @@
         <v>45825.50122685185</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9910,7 +9910,7 @@
         <v>45827.60287037037</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9967,7 +9967,7 @@
         <v>45827.59276620371</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10029,7 +10029,7 @@
         <v>44883.53908564815</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10091,7 +10091,7 @@
         <v>44414.531875</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
         <v>45897.66349537037</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10210,7 +10210,7 @@
         <v>45744.57194444445</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10267,7 +10267,7 @@
         <v>45682</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10324,7 +10324,7 @@
         <v>45199</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10381,7 +10381,7 @@
         <v>44958</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10438,7 +10438,7 @@
         <v>45548.48182870371</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10495,7 +10495,7 @@
         <v>45903.4885300926</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10552,7 +10552,7 @@
         <v>44964.69994212963</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10609,7 +10609,7 @@
         <v>45201</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10666,7 +10666,7 @@
         <v>45167</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10723,7 +10723,7 @@
         <v>44774</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10780,7 +10780,7 @@
         <v>45908.5827662037</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10837,7 +10837,7 @@
         <v>45841.50793981482</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10899,7 +10899,7 @@
         <v>45909.62569444445</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10956,7 +10956,7 @@
         <v>45909</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11013,7 +11013,7 @@
         <v>45909.62886574074</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>45909.62775462963</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11127,7 +11127,7 @@
         <v>45909.62460648148</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11184,7 +11184,7 @@
         <v>44937</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11241,7 +11241,7 @@
         <v>45840</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11298,7 +11298,7 @@
         <v>45764.52909722222</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11355,7 +11355,7 @@
         <v>45911.63373842592</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11417,7 +11417,7 @@
         <v>45911.63979166667</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11479,7 +11479,7 @@
         <v>45841.42353009259</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11541,7 +11541,7 @@
         <v>44965.64119212963</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11598,7 +11598,7 @@
         <v>44994.8055787037</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11655,7 +11655,7 @@
         <v>45911.63810185185</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11717,7 +11717,7 @@
         <v>45911.58439814814</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11774,7 +11774,7 @@
         <v>45832.85302083333</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11831,7 +11831,7 @@
         <v>44386</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11888,7 +11888,7 @@
         <v>44645</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11950,7 +11950,7 @@
         <v>45916.51296296297</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12007,7 +12007,7 @@
         <v>44836.73601851852</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12064,7 +12064,7 @@
         <v>45769.51013888889</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12121,7 +12121,7 @@
         <v>45769.51427083334</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12178,7 +12178,7 @@
         <v>45918.70782407407</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12235,7 +12235,7 @@
         <v>45722.57290509259</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12292,7 +12292,7 @@
         <v>45922.35247685185</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12349,7 +12349,7 @@
         <v>45222.73658564815</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12406,7 +12406,7 @@
         <v>44843</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12463,7 +12463,7 @@
         <v>45922.54543981481</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12525,7 +12525,7 @@
         <v>44865</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12582,7 +12582,7 @@
         <v>45716.50848379629</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12644,7 +12644,7 @@
         <v>45705</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12701,7 +12701,7 @@
         <v>44638</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12758,7 +12758,7 @@
         <v>45443.50011574074</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12815,7 +12815,7 @@
         <v>44936</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12872,7 +12872,7 @@
         <v>45873.53010416667</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12929,7 +12929,7 @@
         <v>44812.31384259259</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12986,7 +12986,7 @@
         <v>45875</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13048,7 +13048,7 @@
         <v>45875.6099537037</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13105,7 +13105,7 @@
         <v>44356</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13162,7 +13162,7 @@
         <v>45875.4712037037</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13219,7 +13219,7 @@
         <v>45201.35621527778</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13276,7 +13276,7 @@
         <v>45203</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13333,7 +13333,7 @@
         <v>44986</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13390,7 +13390,7 @@
         <v>44620.36565972222</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13447,7 +13447,7 @@
         <v>45762.32105324074</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13509,7 +13509,7 @@
         <v>45938.3840625</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13566,7 +13566,7 @@
         <v>45211</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13623,7 +13623,7 @@
         <v>45937.61165509259</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13680,7 +13680,7 @@
         <v>45211</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13737,7 +13737,7 @@
         <v>45266.87113425926</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13794,7 +13794,7 @@
         <v>45887.62195601852</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13856,7 +13856,7 @@
         <v>45628.67807870371</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13913,7 +13913,7 @@
         <v>45887.65802083333</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13975,7 +13975,7 @@
         <v>45887.65528935185</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14037,7 +14037,7 @@
         <v>44972.48915509259</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14094,7 +14094,7 @@
         <v>45748.34873842593</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14151,7 +14151,7 @@
         <v>44974</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14208,7 +14208,7 @@
         <v>45070</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14270,7 +14270,7 @@
         <v>45131</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14327,7 +14327,7 @@
         <v>45720</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14384,7 +14384,7 @@
         <v>45947.65197916667</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14441,7 +14441,7 @@
         <v>45664.63055555556</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14498,7 +14498,7 @@
         <v>44994.81083333334</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14555,7 +14555,7 @@
         <v>45033</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14612,7 +14612,7 @@
         <v>45558.33138888889</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14669,7 +14669,7 @@
         <v>45210.57627314814</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14726,7 +14726,7 @@
         <v>45210.58008101852</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14783,7 +14783,7 @@
         <v>44943</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14840,7 +14840,7 @@
         <v>45181</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14897,7 +14897,7 @@
         <v>45343</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14954,7 +14954,7 @@
         <v>44943.665625</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15011,7 +15011,7 @@
         <v>45135</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15068,7 +15068,7 @@
         <v>45958.43296296296</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15125,7 +15125,7 @@
         <v>45958.44686342592</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15182,7 +15182,7 @@
         <v>44935.3791550926</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15239,7 +15239,7 @@
         <v>45958.44865740741</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15296,7 +15296,7 @@
         <v>45384</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15353,7 +15353,7 @@
         <v>45960.64665509259</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15410,7 +15410,7 @@
         <v>45965.53032407408</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15467,7 +15467,7 @@
         <v>45006</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15524,7 +15524,7 @@
         <v>45225.63690972222</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15581,7 +15581,7 @@
         <v>45966.67394675926</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15638,7 +15638,7 @@
         <v>45188.55583333333</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15700,7 +15700,7 @@
         <v>45329.57056712963</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15757,7 +15757,7 @@
         <v>44739</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15819,7 +15819,7 @@
         <v>45628.39192129629</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15881,7 +15881,7 @@
         <v>45761.59930555556</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15938,7 +15938,7 @@
         <v>45972.57346064815</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16000,7 +16000,7 @@
         <v>45973.47078703704</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16057,7 +16057,7 @@
         <v>45015.67859953704</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16114,7 +16114,7 @@
         <v>45324</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16176,7 +16176,7 @@
         <v>44756.36030092592</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16233,7 +16233,7 @@
         <v>44936</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16290,7 +16290,7 @@
         <v>45639.71925925926</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16347,7 +16347,7 @@
         <v>45239.49313657408</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16409,7 +16409,7 @@
         <v>45535.51828703703</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         <v>45243</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16523,7 +16523,7 @@
         <v>45981.81599537037</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16580,7 +16580,7 @@
         <v>45412.63918981481</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>45412.85439814815</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16694,7 +16694,7 @@
         <v>45544.47037037037</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16751,7 +16751,7 @@
         <v>45271.44229166667</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16808,7 +16808,7 @@
         <v>45268</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16865,7 +16865,7 @@
         <v>45989.31944444445</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16922,7 +16922,7 @@
         <v>45530.40872685185</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16979,7 +16979,7 @@
         <v>44572</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17041,7 +17041,7 @@
         <v>46035.39893518519</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17098,7 +17098,7 @@
         <v>44903.59100694444</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         <v>45705.47484953704</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17212,7 +17212,7 @@
         <v>45705.47769675926</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17269,7 +17269,7 @@
         <v>45722.55954861111</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17326,7 +17326,7 @@
         <v>45727.40679398148</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17383,7 +17383,7 @@
         <v>46037.34707175926</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17440,7 +17440,7 @@
         <v>45271.62438657408</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17497,7 +17497,7 @@
         <v>44523.37383101852</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17554,7 +17554,7 @@
         <v>45982</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17611,7 +17611,7 @@
         <v>44986</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17668,7 +17668,7 @@
         <v>45217</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17725,7 +17725,7 @@
         <v>45217.39053240741</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17782,7 +17782,7 @@
         <v>44930.62032407407</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17839,7 +17839,7 @@
         <v>45330.53326388889</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17896,7 +17896,7 @@
         <v>46042.52333333333</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17953,7 +17953,7 @@
         <v>45015.53054398148</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18010,7 +18010,7 @@
         <v>46000.39114583333</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18067,7 +18067,7 @@
         <v>46003.38299768518</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18124,7 +18124,7 @@
         <v>46003.38445601852</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18181,7 +18181,7 @@
         <v>44876.42122685185</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18243,7 +18243,7 @@
         <v>46003.3855787037</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18300,7 +18300,7 @@
         <v>46003.3871412037</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18357,7 +18357,7 @@
         <v>44900</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18414,7 +18414,7 @@
         <v>44371</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18476,7 +18476,7 @@
         <v>44812.25462962963</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18533,7 +18533,7 @@
         <v>44957</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18590,7 +18590,7 @@
         <v>46007.59984953704</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18647,7 +18647,7 @@
         <v>45371.44770833333</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18704,7 +18704,7 @@
         <v>46007.45995370371</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18761,7 +18761,7 @@
         <v>44622.43478009259</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18818,7 +18818,7 @@
         <v>46009</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18880,7 +18880,7 @@
         <v>44300</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
         <v>45516.56214120371</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18994,7 +18994,7 @@
         <v>46050.52313657408</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19051,7 +19051,7 @@
         <v>46050.52133101852</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19108,7 +19108,7 @@
         <v>45271.62900462963</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19165,7 +19165,7 @@
         <v>45268</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19222,7 +19222,7 @@
         <v>46008.36337962963</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19284,7 +19284,7 @@
         <v>46051.53651620371</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         <v>45210.51917824074</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19403,7 +19403,7 @@
         <v>45350.92024305555</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19460,7 +19460,7 @@
         <v>45162</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19522,7 +19522,7 @@
         <v>45215</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19599,7 +19599,7 @@
         <v>46057.48568287037</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19661,7 +19661,7 @@
         <v>45210.59091435185</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19718,7 +19718,7 @@
         <v>46061.83042824074</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19775,7 +19775,7 @@
         <v>44993.37150462963</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19832,7 +19832,7 @@
         <v>45702.38982638889</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19894,7 +19894,7 @@
         <v>44890.6440162037</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19951,7 +19951,7 @@
         <v>45761.60090277778</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20008,7 +20008,7 @@
         <v>44447.32616898148</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20065,7 +20065,7 @@
         <v>44973</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20122,7 +20122,7 @@
         <v>44614</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20184,7 +20184,7 @@
         <v>44816.47021990741</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20241,7 +20241,7 @@
         <v>46071.52628472223</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20298,7 +20298,7 @@
         <v>46029.47251157407</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20360,7 +20360,7 @@
         <v>46029.47435185185</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20422,7 +20422,7 @@
         <v>45583</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20479,7 +20479,7 @@
         <v>46071.65186342593</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20536,7 +20536,7 @@
         <v>44943.78166666667</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20593,7 +20593,7 @@
         <v>44981</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20650,7 +20650,7 @@
         <v>45210.5324537037</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20707,7 +20707,7 @@
         <v>44756.37861111111</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20764,7 +20764,7 @@
         <v>45412.63122685185</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20821,7 +20821,7 @@
         <v>45412.85292824074</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20878,7 +20878,7 @@
         <v>46071</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20935,7 +20935,7 @@
         <v>44965</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20992,7 +20992,7 @@
         <v>44496.35680555556</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21049,7 +21049,7 @@
         <v>45200.84795138889</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21106,7 +21106,7 @@
         <v>45590.43114583333</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21168,7 +21168,7 @@
         <v>45709.47332175926</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21225,7 +21225,7 @@
         <v>45607.97825231482</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21282,7 +21282,7 @@
         <v>45441</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21344,7 +21344,7 @@
         <v>45211.36153935185</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21401,7 +21401,7 @@
         <v>45114.33414351852</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21458,7 +21458,7 @@
         <v>44489</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21520,7 +21520,7 @@
         <v>45289</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21582,7 +21582,7 @@
         <v>45548.58743055556</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21639,7 +21639,7 @@
         <v>45211.65027777778</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21696,7 +21696,7 @@
         <v>45708.62912037037</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21753,7 +21753,7 @@
         <v>44881</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21810,7 +21810,7 @@
         <v>45460.6934837963</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21867,7 +21867,7 @@
         <v>45524.59075231481</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21924,7 +21924,7 @@
         <v>44553</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21981,7 +21981,7 @@
         <v>45590.42981481482</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22043,7 +22043,7 @@
         <v>45597.58248842593</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22100,7 +22100,7 @@
         <v>45560.31561342593</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22162,7 +22162,7 @@
         <v>44649.55983796297</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22219,7 +22219,7 @@
         <v>44617</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22281,7 +22281,7 @@
         <v>45112</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22343,7 +22343,7 @@
         <v>45097.4265162037</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22405,7 +22405,7 @@
         <v>45706.56320601852</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22462,7 +22462,7 @@
         <v>45722.57545138889</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22519,7 +22519,7 @@
         <v>44616</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22581,7 +22581,7 @@
         <v>45590.43452546297</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22643,7 +22643,7 @@
         <v>45070.58734953704</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22700,7 +22700,7 @@
         <v>45751.53894675926</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22757,7 +22757,7 @@
         <v>44999</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22814,7 +22814,7 @@
         <v>45200.85653935185</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22871,7 +22871,7 @@
         <v>45528.60868055555</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22928,7 +22928,7 @@
         <v>45210.5391087963</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22985,7 +22985,7 @@
         <v>45709.47657407408</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23042,7 +23042,7 @@
         <v>44848.63724537037</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23099,7 +23099,7 @@
         <v>45260</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23156,7 +23156,7 @@
         <v>45393.63282407408</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23213,7 +23213,7 @@
         <v>45516.55818287037</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23270,7 +23270,7 @@
         <v>44746.56627314815</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23327,7 +23327,7 @@
         <v>45516.56393518519</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23384,7 +23384,7 @@
         <v>45705.48096064815</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23441,7 +23441,7 @@
         <v>45705.48537037037</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23498,7 +23498,7 @@
         <v>45674.33168981481</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23555,7 +23555,7 @@
         <v>44917</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23612,7 +23612,7 @@
         <v>45560.34092592593</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23674,7 +23674,7 @@
         <v>45702.39122685185</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23736,7 +23736,7 @@
         <v>45727.34619212963</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23793,7 +23793,7 @@
         <v>45691.58796296296</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23850,7 +23850,7 @@
         <v>45265</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23912,7 +23912,7 @@
         <v>45211.67170138889</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23969,7 +23969,7 @@
         <v>45720</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24026,7 +24026,7 @@
         <v>45299.79818287037</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24083,7 +24083,7 @@
         <v>45777.56768518518</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24140,7 +24140,7 @@
         <v>45720</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24197,7 +24197,7 @@
         <v>45783.59091435185</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24259,7 +24259,7 @@
         <v>45783.59233796296</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24321,7 +24321,7 @@
         <v>45783.59347222222</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24383,7 +24383,7 @@
         <v>45684.58362268518</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24445,7 +24445,7 @@
         <v>44445</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24502,7 +24502,7 @@
         <v>45307.69517361111</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24559,7 +24559,7 @@
         <v>45786.55561342592</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24621,7 +24621,7 @@
         <v>45516.56032407407</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24678,7 +24678,7 @@
         <v>45789.6285300926</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24735,7 +24735,7 @@
         <v>45786.55434027778</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24797,7 +24797,7 @@
         <v>45590.50378472222</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24854,7 +24854,7 @@
         <v>45545</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24911,7 +24911,7 @@
         <v>45709.46944444445</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24968,7 +24968,7 @@
         <v>45728.61773148148</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25030,7 +25030,7 @@
         <v>45728.61907407407</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25092,7 +25092,7 @@
         <v>45727.46413194444</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25149,7 +25149,7 @@
         <v>44521</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25206,7 +25206,7 @@
         <v>45705</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25263,7 +25263,7 @@
         <v>45716.26827546296</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25325,7 +25325,7 @@
         <v>45616</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25382,7 +25382,7 @@
         <v>45723.45986111111</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25444,7 +25444,7 @@
         <v>45211</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25501,7 +25501,7 @@
         <v>45716.26694444445</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25563,7 +25563,7 @@
         <v>45728.61289351852</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25625,7 +25625,7 @@
         <v>45502.71954861111</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25682,7 +25682,7 @@
         <v>45728.61486111111</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25744,7 +25744,7 @@
         <v>45728.61689814815</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25806,7 +25806,7 @@
         <v>45709.47069444445</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25863,7 +25863,7 @@
         <v>45790.56325231482</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25920,7 +25920,7 @@
         <v>45743.46834490741</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25977,7 +25977,7 @@
         <v>45716.64101851852</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26034,7 +26034,7 @@
         <v>45331.4083912037</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26091,7 +26091,7 @@
         <v>45610.62446759259</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26148,7 +26148,7 @@
         <v>45600</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26205,7 +26205,7 @@
         <v>45798.39030092592</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26267,7 +26267,7 @@
         <v>45798.40402777777</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26329,7 +26329,7 @@
         <v>45798.39853009259</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26391,7 +26391,7 @@
         <v>45804.4008912037</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26453,7 +26453,7 @@
         <v>45804.40251157407</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26515,7 +26515,7 @@
         <v>45804.59694444444</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26572,7 +26572,7 @@
         <v>45804.40402777777</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26634,7 +26634,7 @@
         <v>45804.55891203704</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26696,7 +26696,7 @@
         <v>45804.59502314815</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26753,7 +26753,7 @@
         <v>45804.56056712963</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26815,7 +26815,7 @@
         <v>45754.48366898148</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26872,7 +26872,7 @@
         <v>45810.63402777778</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26929,7 +26929,7 @@
         <v>45817.60978009259</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>

--- a/Översikt MARIESTAD.xlsx
+++ b/Översikt MARIESTAD.xlsx
@@ -575,7 +575,7 @@
         <v>45691.58489583333</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44473</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         <v>45708.62547453704</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         <v>45664.6258912037</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -949,7 +949,7 @@
         <v>44648</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1036,7 +1036,7 @@
         <v>45203</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>45911.63658564815</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
         <v>44524</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         <v>44484</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>44628</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1480,7 +1480,7 @@
         <v>45222.72725694445</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1566,7 +1566,7 @@
         <v>45015.46353009259</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         <v>45201.33994212963</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         <v>44461</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         <v>44610.35016203704</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1924,7 +1924,7 @@
         <v>45821.63221064815</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2014,7 +2014,7 @@
         <v>45821.63375</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2104,7 +2104,7 @@
         <v>45911.6475462963</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2189,7 +2189,7 @@
         <v>45035.43792824074</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2274,7 +2274,7 @@
         <v>44974</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2363,7 +2363,7 @@
         <v>45947.64873842592</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2448,7 +2448,7 @@
         <v>44880.67344907407</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2533,7 +2533,7 @@
         <v>45330</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
         <v>45761.65479166667</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
         <v>45210</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2788,7 +2788,7 @@
         <v>45716.26487268518</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2878,7 +2878,7 @@
         <v>44619.80266203704</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2935,7 +2935,7 @@
         <v>44461</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2992,7 +2992,7 @@
         <v>44383</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         <v>44574</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         <v>44746.47386574074</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3163,7 +3163,7 @@
         <v>44840.30342592593</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         <v>44852</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
         <v>44473.49318287037</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3334,7 +3334,7 @@
         <v>44484</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3391,7 +3391,7 @@
         <v>44279</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3453,7 +3453,7 @@
         <v>44446</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
         <v>44356</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3567,7 +3567,7 @@
         <v>44460.49046296296</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>44461</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>44539.55670138889</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
         <v>44523</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>44614</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3857,7 +3857,7 @@
         <v>44337</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3914,7 +3914,7 @@
         <v>44766.64856481482</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
         <v>44880</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4028,7 +4028,7 @@
         <v>44361</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4085,7 +4085,7 @@
         <v>44546</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
         <v>44438.53459490741</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4199,7 +4199,7 @@
         <v>44447.32269675926</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4256,7 +4256,7 @@
         <v>44260.52445601852</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4313,7 +4313,7 @@
         <v>44404</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4370,7 +4370,7 @@
         <v>44496.26841435185</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4432,7 +4432,7 @@
         <v>44453.69256944444</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4489,7 +4489,7 @@
         <v>44758</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         <v>44693</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4603,7 +4603,7 @@
         <v>44340</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4660,7 +4660,7 @@
         <v>44433.41525462963</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4717,7 +4717,7 @@
         <v>44649</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4774,7 +4774,7 @@
         <v>44571</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4831,7 +4831,7 @@
         <v>44445</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4888,7 +4888,7 @@
         <v>44371</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4945,7 +4945,7 @@
         <v>44354.61337962963</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5002,7 +5002,7 @@
         <v>44880</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         <v>44581.30111111111</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5121,7 +5121,7 @@
         <v>44256</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5178,7 +5178,7 @@
         <v>44526.32285879629</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5240,7 +5240,7 @@
         <v>44446</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5297,7 +5297,7 @@
         <v>44264.26887731482</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5359,7 +5359,7 @@
         <v>44440</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5416,7 +5416,7 @@
         <v>44344</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5473,7 +5473,7 @@
         <v>44523</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5530,7 +5530,7 @@
         <v>44455.72633101852</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5587,7 +5587,7 @@
         <v>44592.403125</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5644,7 +5644,7 @@
         <v>44530</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5701,7 +5701,7 @@
         <v>45674.33615740741</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5758,7 +5758,7 @@
         <v>44363.29069444445</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5815,7 +5815,7 @@
         <v>45435</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
         <v>44630.53233796296</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5934,7 +5934,7 @@
         <v>45628.53997685185</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5991,7 +5991,7 @@
         <v>45590.41381944445</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6053,7 +6053,7 @@
         <v>45702.38752314815</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6115,7 +6115,7 @@
         <v>44843.6315625</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6172,7 +6172,7 @@
         <v>45677.82644675926</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6229,7 +6229,7 @@
         <v>44830</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6286,7 +6286,7 @@
         <v>45762.31956018518</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6348,7 +6348,7 @@
         <v>45762.32237268519</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6410,7 +6410,7 @@
         <v>44574.24587962963</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6467,7 +6467,7 @@
         <v>45397</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6524,7 +6524,7 @@
         <v>45705.47967592593</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6581,7 +6581,7 @@
         <v>44629</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         <v>45590.4659837963</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6700,7 +6700,7 @@
         <v>44830</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6757,7 +6757,7 @@
         <v>45324</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6814,7 +6814,7 @@
         <v>45470.49233796296</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6876,7 +6876,7 @@
         <v>45097.42556712963</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6933,7 +6933,7 @@
         <v>45469.35059027778</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6990,7 +6990,7 @@
         <v>44847</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7047,7 +7047,7 @@
         <v>45600.69061342593</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7104,7 +7104,7 @@
         <v>44521</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7161,7 +7161,7 @@
         <v>45210.57178240741</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7218,7 +7218,7 @@
         <v>45210.59508101852</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7275,7 +7275,7 @@
         <v>45705.4209837963</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>44746.41878472222</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7389,7 +7389,7 @@
         <v>44942.71665509259</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7446,7 +7446,7 @@
         <v>45691.32157407407</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7508,7 +7508,7 @@
         <v>45691.3403587963</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         <v>44693.65290509259</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         <v>44536.40289351852</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7684,7 +7684,7 @@
         <v>45240</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7741,7 +7741,7 @@
         <v>44797.32917824074</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7798,7 +7798,7 @@
         <v>44971</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7855,7 +7855,7 @@
         <v>44993</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7917,7 +7917,7 @@
         <v>45097.40554398148</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7974,7 +7974,7 @@
         <v>45170</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8031,7 +8031,7 @@
         <v>45268</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8088,7 +8088,7 @@
         <v>45163.45347222222</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8150,7 +8150,7 @@
         <v>45343.59774305556</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8207,7 +8207,7 @@
         <v>45716.55226851852</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8269,7 +8269,7 @@
         <v>45373.68430555556</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8326,7 +8326,7 @@
         <v>44351</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8388,7 +8388,7 @@
         <v>45265</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         <v>45818.62532407408</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>45819.4</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>45560.31390046296</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         <v>45819.40282407407</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8683,7 +8683,7 @@
         <v>44426</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8740,7 +8740,7 @@
         <v>44746.41486111111</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8797,7 +8797,7 @@
         <v>44746.42554398148</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8854,7 +8854,7 @@
         <v>44536</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8916,7 +8916,7 @@
         <v>45887.65668981482</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8978,7 +8978,7 @@
         <v>45393.62962962963</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9035,7 +9035,7 @@
         <v>45819.39317129629</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9092,7 +9092,7 @@
         <v>45821.30320601852</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9149,7 +9149,7 @@
         <v>45820.63811342593</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9206,7 +9206,7 @@
         <v>45820.64241898148</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9263,7 +9263,7 @@
         <v>44901.49652777778</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9325,7 +9325,7 @@
         <v>45825</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9382,7 +9382,7 @@
         <v>45889</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9439,7 +9439,7 @@
         <v>45824.66903935185</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9496,7 +9496,7 @@
         <v>45824.3672337963</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9553,7 +9553,7 @@
         <v>45824.82013888889</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9610,7 +9610,7 @@
         <v>45673</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9667,7 +9667,7 @@
         <v>45245</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9724,7 +9724,7 @@
         <v>45825.49831018518</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9786,7 +9786,7 @@
         <v>45825.49658564815</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9848,7 +9848,7 @@
         <v>45825.50122685185</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9910,7 +9910,7 @@
         <v>45827.60287037037</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9967,7 +9967,7 @@
         <v>45827.59276620371</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10029,7 +10029,7 @@
         <v>44883.53908564815</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10091,7 +10091,7 @@
         <v>44414.531875</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
         <v>45897.66349537037</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10210,7 +10210,7 @@
         <v>45744.57194444445</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10267,7 +10267,7 @@
         <v>45682</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10324,7 +10324,7 @@
         <v>45199</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10381,7 +10381,7 @@
         <v>44958</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10438,7 +10438,7 @@
         <v>45548.48182870371</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10495,7 +10495,7 @@
         <v>45903.4885300926</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10552,7 +10552,7 @@
         <v>44964.69994212963</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10609,7 +10609,7 @@
         <v>45201</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10666,7 +10666,7 @@
         <v>45167</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10723,7 +10723,7 @@
         <v>44774</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10780,7 +10780,7 @@
         <v>45908.5827662037</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10837,7 +10837,7 @@
         <v>45841.50793981482</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10899,7 +10899,7 @@
         <v>45909.62569444445</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10956,7 +10956,7 @@
         <v>45909</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11013,7 +11013,7 @@
         <v>45909.62886574074</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>45909.62775462963</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11127,7 +11127,7 @@
         <v>45909.62460648148</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11184,7 +11184,7 @@
         <v>44937</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11241,7 +11241,7 @@
         <v>45840</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11298,7 +11298,7 @@
         <v>45764.52909722222</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11355,7 +11355,7 @@
         <v>45911.63373842592</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11417,7 +11417,7 @@
         <v>45911.63979166667</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11479,7 +11479,7 @@
         <v>45841.42353009259</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11541,7 +11541,7 @@
         <v>44965.64119212963</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11598,7 +11598,7 @@
         <v>44994.8055787037</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11655,7 +11655,7 @@
         <v>45911.63810185185</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11717,7 +11717,7 @@
         <v>45911.58439814814</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11774,7 +11774,7 @@
         <v>45832.85302083333</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11831,7 +11831,7 @@
         <v>44386</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11888,7 +11888,7 @@
         <v>44645</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11950,7 +11950,7 @@
         <v>45916.51296296297</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12007,7 +12007,7 @@
         <v>44836.73601851852</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12064,7 +12064,7 @@
         <v>45769.51013888889</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12121,7 +12121,7 @@
         <v>45769.51427083334</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12178,7 +12178,7 @@
         <v>45918.70782407407</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12235,7 +12235,7 @@
         <v>45722.57290509259</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12292,7 +12292,7 @@
         <v>45922.35247685185</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12349,7 +12349,7 @@
         <v>45222.73658564815</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12406,7 +12406,7 @@
         <v>44843</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12463,7 +12463,7 @@
         <v>45922.54543981481</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12525,7 +12525,7 @@
         <v>44865</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12582,7 +12582,7 @@
         <v>45716.50848379629</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12644,7 +12644,7 @@
         <v>45705</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12701,7 +12701,7 @@
         <v>44638</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12758,7 +12758,7 @@
         <v>45443.50011574074</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12815,7 +12815,7 @@
         <v>44936</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12872,7 +12872,7 @@
         <v>45873.53010416667</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12929,7 +12929,7 @@
         <v>44812.31384259259</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12986,7 +12986,7 @@
         <v>45875</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13048,7 +13048,7 @@
         <v>45875.6099537037</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13105,7 +13105,7 @@
         <v>44356</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13162,7 +13162,7 @@
         <v>45875.4712037037</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13219,7 +13219,7 @@
         <v>45201.35621527778</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13276,7 +13276,7 @@
         <v>45203</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13333,7 +13333,7 @@
         <v>44986</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13390,7 +13390,7 @@
         <v>44620.36565972222</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13447,7 +13447,7 @@
         <v>45762.32105324074</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13509,7 +13509,7 @@
         <v>45938.3840625</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13566,7 +13566,7 @@
         <v>45211</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13623,7 +13623,7 @@
         <v>45937.61165509259</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13680,7 +13680,7 @@
         <v>45211</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13737,7 +13737,7 @@
         <v>45266.87113425926</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13794,7 +13794,7 @@
         <v>45887.62195601852</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13856,7 +13856,7 @@
         <v>45628.67807870371</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13913,7 +13913,7 @@
         <v>45887.65802083333</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13975,7 +13975,7 @@
         <v>45887.65528935185</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14037,7 +14037,7 @@
         <v>44972.48915509259</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14094,7 +14094,7 @@
         <v>45748.34873842593</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14151,7 +14151,7 @@
         <v>44974</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14208,7 +14208,7 @@
         <v>45070</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14270,7 +14270,7 @@
         <v>45131</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14327,7 +14327,7 @@
         <v>45720</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14384,7 +14384,7 @@
         <v>45947.65197916667</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14441,7 +14441,7 @@
         <v>45664.63055555556</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14498,7 +14498,7 @@
         <v>44994.81083333334</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14555,7 +14555,7 @@
         <v>45033</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14612,7 +14612,7 @@
         <v>45558.33138888889</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14669,7 +14669,7 @@
         <v>45210.57627314814</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14726,7 +14726,7 @@
         <v>45210.58008101852</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14783,7 +14783,7 @@
         <v>44943</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14840,7 +14840,7 @@
         <v>45181</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14897,7 +14897,7 @@
         <v>45343</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14954,7 +14954,7 @@
         <v>44943.665625</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15011,7 +15011,7 @@
         <v>45135</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15068,7 +15068,7 @@
         <v>45958.43296296296</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15125,7 +15125,7 @@
         <v>45958.44686342592</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15182,7 +15182,7 @@
         <v>44935.3791550926</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15239,7 +15239,7 @@
         <v>45958.44865740741</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15296,7 +15296,7 @@
         <v>45384</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15353,7 +15353,7 @@
         <v>45960.64665509259</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15410,7 +15410,7 @@
         <v>45965.53032407408</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15467,7 +15467,7 @@
         <v>45006</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15524,7 +15524,7 @@
         <v>45225.63690972222</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15581,7 +15581,7 @@
         <v>45966.67394675926</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15638,7 +15638,7 @@
         <v>45188.55583333333</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15700,7 +15700,7 @@
         <v>45329.57056712963</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15757,7 +15757,7 @@
         <v>44739</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15819,7 +15819,7 @@
         <v>45628.39192129629</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15881,7 +15881,7 @@
         <v>45761.59930555556</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15938,7 +15938,7 @@
         <v>45972.57346064815</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16000,7 +16000,7 @@
         <v>45973.47078703704</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16057,7 +16057,7 @@
         <v>45015.67859953704</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16114,7 +16114,7 @@
         <v>45324</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16176,7 +16176,7 @@
         <v>44756.36030092592</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16233,7 +16233,7 @@
         <v>44936</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16290,7 +16290,7 @@
         <v>45639.71925925926</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16347,7 +16347,7 @@
         <v>45239.49313657408</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16409,7 +16409,7 @@
         <v>45535.51828703703</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         <v>45243</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16523,7 +16523,7 @@
         <v>45981.81599537037</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16580,7 +16580,7 @@
         <v>45412.63918981481</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>45412.85439814815</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16694,7 +16694,7 @@
         <v>45544.47037037037</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16751,7 +16751,7 @@
         <v>45271.44229166667</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16808,7 +16808,7 @@
         <v>45268</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16865,7 +16865,7 @@
         <v>45989.31944444445</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16922,7 +16922,7 @@
         <v>45530.40872685185</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16979,7 +16979,7 @@
         <v>44572</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17041,7 +17041,7 @@
         <v>46035.39893518519</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17098,7 +17098,7 @@
         <v>44903.59100694444</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         <v>45705.47484953704</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17212,7 +17212,7 @@
         <v>45705.47769675926</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17269,7 +17269,7 @@
         <v>45722.55954861111</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17326,7 +17326,7 @@
         <v>45727.40679398148</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17383,7 +17383,7 @@
         <v>46037.34707175926</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17440,7 +17440,7 @@
         <v>45271.62438657408</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17497,7 +17497,7 @@
         <v>44523.37383101852</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17554,7 +17554,7 @@
         <v>45982</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17611,7 +17611,7 @@
         <v>44986</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17668,7 +17668,7 @@
         <v>45217</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17725,7 +17725,7 @@
         <v>45217.39053240741</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17782,7 +17782,7 @@
         <v>44930.62032407407</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17839,7 +17839,7 @@
         <v>45330.53326388889</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17896,7 +17896,7 @@
         <v>46042.52333333333</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17953,7 +17953,7 @@
         <v>45015.53054398148</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18010,7 +18010,7 @@
         <v>46000.39114583333</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18067,7 +18067,7 @@
         <v>46003.38299768518</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18124,7 +18124,7 @@
         <v>46003.38445601852</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18181,7 +18181,7 @@
         <v>44876.42122685185</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18243,7 +18243,7 @@
         <v>46003.3855787037</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18300,7 +18300,7 @@
         <v>46003.3871412037</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18357,7 +18357,7 @@
         <v>44900</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18414,7 +18414,7 @@
         <v>44371</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18476,7 +18476,7 @@
         <v>44812.25462962963</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18533,7 +18533,7 @@
         <v>44957</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18590,7 +18590,7 @@
         <v>46007.59984953704</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18647,7 +18647,7 @@
         <v>45371.44770833333</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18704,7 +18704,7 @@
         <v>46007.45995370371</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18761,7 +18761,7 @@
         <v>44622.43478009259</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18818,7 +18818,7 @@
         <v>46009</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18880,7 +18880,7 @@
         <v>44300</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
         <v>45516.56214120371</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18994,7 +18994,7 @@
         <v>46050.52313657408</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19051,7 +19051,7 @@
         <v>46050.52133101852</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19108,7 +19108,7 @@
         <v>45271.62900462963</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19165,7 +19165,7 @@
         <v>45268</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19222,7 +19222,7 @@
         <v>46008.36337962963</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19284,7 +19284,7 @@
         <v>46051.53651620371</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         <v>45210.51917824074</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19403,7 +19403,7 @@
         <v>45350.92024305555</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19460,7 +19460,7 @@
         <v>45162</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19522,7 +19522,7 @@
         <v>45215</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19599,7 +19599,7 @@
         <v>46057.48568287037</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19661,7 +19661,7 @@
         <v>45210.59091435185</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19718,7 +19718,7 @@
         <v>46061.83042824074</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19775,7 +19775,7 @@
         <v>44993.37150462963</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19832,7 +19832,7 @@
         <v>45702.38982638889</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19894,7 +19894,7 @@
         <v>44890.6440162037</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19951,7 +19951,7 @@
         <v>45761.60090277778</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20008,7 +20008,7 @@
         <v>44447.32616898148</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20065,7 +20065,7 @@
         <v>44973</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20122,7 +20122,7 @@
         <v>44614</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20184,7 +20184,7 @@
         <v>44816.47021990741</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20241,7 +20241,7 @@
         <v>46071.52628472223</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20298,7 +20298,7 @@
         <v>46029.47251157407</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20360,7 +20360,7 @@
         <v>46029.47435185185</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20422,7 +20422,7 @@
         <v>45583</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20479,7 +20479,7 @@
         <v>46071.65186342593</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20536,7 +20536,7 @@
         <v>44943.78166666667</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20593,7 +20593,7 @@
         <v>44981</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20650,7 +20650,7 @@
         <v>45210.5324537037</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20707,7 +20707,7 @@
         <v>44756.37861111111</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20764,7 +20764,7 @@
         <v>45412.63122685185</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20821,7 +20821,7 @@
         <v>45412.85292824074</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20878,7 +20878,7 @@
         <v>46071</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20935,7 +20935,7 @@
         <v>44965</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20992,7 +20992,7 @@
         <v>44496.35680555556</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21049,7 +21049,7 @@
         <v>45200.84795138889</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21106,7 +21106,7 @@
         <v>45590.43114583333</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21168,7 +21168,7 @@
         <v>45709.47332175926</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21225,7 +21225,7 @@
         <v>45607.97825231482</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21282,7 +21282,7 @@
         <v>45441</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21344,7 +21344,7 @@
         <v>45211.36153935185</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21401,7 +21401,7 @@
         <v>45114.33414351852</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21458,7 +21458,7 @@
         <v>44489</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21520,7 +21520,7 @@
         <v>45289</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21582,7 +21582,7 @@
         <v>45548.58743055556</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21639,7 +21639,7 @@
         <v>45211.65027777778</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21696,7 +21696,7 @@
         <v>45708.62912037037</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21753,7 +21753,7 @@
         <v>44881</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21810,7 +21810,7 @@
         <v>45460.6934837963</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21867,7 +21867,7 @@
         <v>45524.59075231481</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21924,7 +21924,7 @@
         <v>44553</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21981,7 +21981,7 @@
         <v>45590.42981481482</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22043,7 +22043,7 @@
         <v>45597.58248842593</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22100,7 +22100,7 @@
         <v>45560.31561342593</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22162,7 +22162,7 @@
         <v>44649.55983796297</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22219,7 +22219,7 @@
         <v>44617</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22281,7 +22281,7 @@
         <v>45112</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22343,7 +22343,7 @@
         <v>45097.4265162037</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22405,7 +22405,7 @@
         <v>45706.56320601852</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22462,7 +22462,7 @@
         <v>45722.57545138889</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22519,7 +22519,7 @@
         <v>44616</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22581,7 +22581,7 @@
         <v>45590.43452546297</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22643,7 +22643,7 @@
         <v>45070.58734953704</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22700,7 +22700,7 @@
         <v>45751.53894675926</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22757,7 +22757,7 @@
         <v>44999</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22814,7 +22814,7 @@
         <v>45200.85653935185</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22871,7 +22871,7 @@
         <v>45528.60868055555</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22928,7 +22928,7 @@
         <v>45210.5391087963</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22985,7 +22985,7 @@
         <v>45709.47657407408</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23042,7 +23042,7 @@
         <v>44848.63724537037</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23099,7 +23099,7 @@
         <v>45260</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23156,7 +23156,7 @@
         <v>45393.63282407408</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23213,7 +23213,7 @@
         <v>45516.55818287037</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23270,7 +23270,7 @@
         <v>44746.56627314815</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23327,7 +23327,7 @@
         <v>45516.56393518519</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23384,7 +23384,7 @@
         <v>45705.48096064815</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23441,7 +23441,7 @@
         <v>45705.48537037037</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23498,7 +23498,7 @@
         <v>45674.33168981481</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23555,7 +23555,7 @@
         <v>44917</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23612,7 +23612,7 @@
         <v>45560.34092592593</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23674,7 +23674,7 @@
         <v>45702.39122685185</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23736,7 +23736,7 @@
         <v>45727.34619212963</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23793,7 +23793,7 @@
         <v>45691.58796296296</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23850,7 +23850,7 @@
         <v>45265</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23912,7 +23912,7 @@
         <v>45211.67170138889</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23969,7 +23969,7 @@
         <v>45720</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24026,7 +24026,7 @@
         <v>45299.79818287037</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24083,7 +24083,7 @@
         <v>45777.56768518518</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24140,7 +24140,7 @@
         <v>45720</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24197,7 +24197,7 @@
         <v>45783.59091435185</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24259,7 +24259,7 @@
         <v>45783.59233796296</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24321,7 +24321,7 @@
         <v>45783.59347222222</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24383,7 +24383,7 @@
         <v>45684.58362268518</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24445,7 +24445,7 @@
         <v>44445</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24502,7 +24502,7 @@
         <v>45307.69517361111</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24559,7 +24559,7 @@
         <v>45786.55561342592</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24621,7 +24621,7 @@
         <v>45516.56032407407</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24678,7 +24678,7 @@
         <v>45789.6285300926</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24735,7 +24735,7 @@
         <v>45786.55434027778</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24797,7 +24797,7 @@
         <v>45590.50378472222</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24854,7 +24854,7 @@
         <v>45545</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24911,7 +24911,7 @@
         <v>45709.46944444445</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24968,7 +24968,7 @@
         <v>45728.61773148148</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25030,7 +25030,7 @@
         <v>45728.61907407407</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25092,7 +25092,7 @@
         <v>45727.46413194444</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25149,7 +25149,7 @@
         <v>44521</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25206,7 +25206,7 @@
         <v>45705</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25263,7 +25263,7 @@
         <v>45716.26827546296</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25325,7 +25325,7 @@
         <v>45616</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25382,7 +25382,7 @@
         <v>45723.45986111111</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25444,7 +25444,7 @@
         <v>45211</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25501,7 +25501,7 @@
         <v>45716.26694444445</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25563,7 +25563,7 @@
         <v>45728.61289351852</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25625,7 +25625,7 @@
         <v>45502.71954861111</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25682,7 +25682,7 @@
         <v>45728.61486111111</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25744,7 +25744,7 @@
         <v>45728.61689814815</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25806,7 +25806,7 @@
         <v>45709.47069444445</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25863,7 +25863,7 @@
         <v>45790.56325231482</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25920,7 +25920,7 @@
         <v>45743.46834490741</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25977,7 +25977,7 @@
         <v>45716.64101851852</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26034,7 +26034,7 @@
         <v>45331.4083912037</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26091,7 +26091,7 @@
         <v>45610.62446759259</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26148,7 +26148,7 @@
         <v>45600</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26205,7 +26205,7 @@
         <v>45798.39030092592</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26267,7 +26267,7 @@
         <v>45798.40402777777</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26329,7 +26329,7 @@
         <v>45798.39853009259</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26391,7 +26391,7 @@
         <v>45804.4008912037</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26453,7 +26453,7 @@
         <v>45804.40251157407</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26515,7 +26515,7 @@
         <v>45804.59694444444</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26572,7 +26572,7 @@
         <v>45804.40402777777</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26634,7 +26634,7 @@
         <v>45804.55891203704</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26696,7 +26696,7 @@
         <v>45804.59502314815</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26753,7 +26753,7 @@
         <v>45804.56056712963</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26815,7 +26815,7 @@
         <v>45754.48366898148</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26872,7 +26872,7 @@
         <v>45810.63402777778</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26929,7 +26929,7 @@
         <v>45817.60978009259</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
